--- a/outputs-r202/p__Firmicutes_A.xlsx
+++ b/outputs-r202/p__Firmicutes_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +649,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +690,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -701,6 +731,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +772,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -773,6 +813,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -809,6 +854,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -845,6 +895,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -881,6 +936,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -917,6 +977,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -953,6 +1018,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -989,6 +1059,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1025,6 +1100,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1061,6 +1141,11 @@
           <t>c__Clostridia_A</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1097,6 +1182,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1133,6 +1223,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1169,6 +1264,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1205,6 +1305,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1241,6 +1346,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1277,6 +1387,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1313,6 +1428,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1349,6 +1469,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1385,6 +1510,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1421,6 +1551,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1457,6 +1592,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1493,6 +1633,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1529,6 +1674,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1565,6 +1715,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1601,6 +1756,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1637,6 +1797,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1673,6 +1838,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1709,6 +1879,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1745,6 +1920,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1781,6 +1961,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1817,6 +2002,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1853,6 +2043,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1889,6 +2084,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1925,6 +2125,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1961,6 +2166,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1997,6 +2207,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2033,6 +2248,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2069,6 +2289,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2105,6 +2330,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2141,6 +2371,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2177,6 +2412,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2213,6 +2453,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2249,6 +2494,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2285,6 +2535,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2321,6 +2576,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2357,6 +2617,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2393,6 +2658,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2429,6 +2699,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2465,6 +2740,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2501,6 +2781,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2537,6 +2822,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2573,6 +2863,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2609,6 +2904,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2645,6 +2945,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2681,6 +2986,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2717,6 +3027,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2753,6 +3068,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2789,6 +3109,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2825,6 +3150,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2861,6 +3191,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2897,6 +3232,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2933,6 +3273,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2969,6 +3314,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3005,6 +3355,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3041,6 +3396,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3077,6 +3437,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3113,6 +3478,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3149,6 +3519,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3185,6 +3560,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3221,6 +3601,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3257,6 +3642,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3293,6 +3683,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3329,6 +3724,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3365,6 +3765,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3401,6 +3806,11 @@
           <t>c__Clostridia_A</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3437,6 +3847,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3473,6 +3888,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3509,6 +3929,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3545,6 +3970,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3581,6 +4011,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3617,6 +4052,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3653,6 +4093,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3689,6 +4134,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3725,6 +4175,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3761,6 +4216,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3797,6 +4257,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3833,6 +4298,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3869,6 +4339,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3905,6 +4380,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3941,6 +4421,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3977,6 +4462,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -4013,6 +4503,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -4049,6 +4544,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -4085,6 +4585,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -4121,6 +4626,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -4157,6 +4667,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -4193,6 +4708,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -4229,6 +4749,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -4265,6 +4790,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -4301,6 +4831,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -4337,6 +4872,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -4373,6 +4913,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4409,6 +4954,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -4445,6 +4995,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -4481,6 +5036,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4517,6 +5077,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>c__Clostridia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -4553,6 +5118,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4589,6 +5159,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -4625,6 +5200,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -4661,6 +5241,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -4697,6 +5282,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4733,6 +5323,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4769,6 +5364,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -4805,6 +5405,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -4841,6 +5446,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -4877,6 +5487,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -4913,6 +5528,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -4949,6 +5569,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -4985,6 +5610,11 @@
           <t>c__Clostridia_A</t>
         </is>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -5021,6 +5651,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -5057,6 +5692,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -5093,6 +5733,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -5129,6 +5774,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -5165,6 +5815,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -5201,6 +5856,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -5237,6 +5897,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -5273,6 +5938,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -5309,6 +5979,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -5345,6 +6020,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -5381,6 +6061,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -5417,6 +6102,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -5453,6 +6143,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -5489,6 +6184,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>c__Clostridia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -5525,6 +6225,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -5561,6 +6266,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -5597,6 +6307,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -5633,6 +6348,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -5669,6 +6389,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -5705,6 +6430,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -5741,6 +6471,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -5777,6 +6512,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -5813,6 +6553,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -5849,6 +6594,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -5885,6 +6635,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -5921,6 +6676,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -5957,6 +6717,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -5993,6 +6758,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -6029,6 +6799,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -6065,6 +6840,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -6101,6 +6881,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -6137,6 +6922,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -6173,6 +6963,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -6209,6 +7004,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -6245,6 +7045,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -6281,6 +7086,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -6317,6 +7127,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>c__Clostridia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -6353,6 +7168,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -6389,6 +7209,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -6425,6 +7250,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -6461,6 +7291,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -6497,6 +7332,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -6533,6 +7373,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>c__Clostridia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -6569,6 +7414,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -6605,6 +7455,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -6641,6 +7496,11 @@
           <t>c__Clostridia_A</t>
         </is>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -6677,6 +7537,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -6713,6 +7578,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -6749,6 +7619,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -6785,6 +7660,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -6821,6 +7701,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -6857,6 +7742,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -6893,6 +7783,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -6929,6 +7824,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -6965,6 +7865,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -7001,6 +7906,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -7037,6 +7947,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -7073,6 +7988,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -7109,6 +8029,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -7145,6 +8070,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -7181,6 +8111,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -7217,6 +8152,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -7253,6 +8193,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -7289,6 +8234,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -7325,6 +8275,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -7361,6 +8316,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -7397,6 +8357,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -7433,6 +8398,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -7469,6 +8439,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -7505,6 +8480,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -7541,6 +8521,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -7577,6 +8562,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -7609,6 +8599,11 @@
         <v>0.9942217926148299</v>
       </c>
       <c r="J199" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>c__Clostridia</t>
         </is>

--- a/outputs-r202/p__Firmicutes_A.xlsx
+++ b/outputs-r202/p__Firmicutes_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,28 +498,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220464544740967e-14</v>
+        <v>2.220649187384692e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999973045604469</v>
+        <v>0.9999698240147493</v>
       </c>
       <c r="D2" t="n">
-        <v>2.695401818776598e-06</v>
+        <v>2.919905463034121e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220464544740967e-14</v>
+        <v>2.220649187384692e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220464544740967e-14</v>
+        <v>2.220649187384692e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.764553354828526e-11</v>
+        <v>9.769300214894602e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220464544740969e-14</v>
+        <v>5.322435985952321e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999973045604469</v>
+        <v>0.9999698240147493</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -535,32 +535,32 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG008.fasta</t>
+          <t>RUG007.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220369812508114e-14</v>
+        <v>2.148800768096173e-10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9997353711964433</v>
+        <v>0.9975690161697957</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000264441111053934</v>
+        <v>0.002430577719664484</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220369812508114e-14</v>
+        <v>2.219907336923224e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220369812508114e-14</v>
+        <v>2.219907336923224e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>7.845281530586905e-12</v>
+        <v>4.058950036880952e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>1.876845908771846e-07</v>
+        <v>6.117692138822439e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9997353711964433</v>
+        <v>0.9975690161697957</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -576,32 +576,32 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG009.fasta</t>
+          <t>RUG008.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220458421353571e-14</v>
+        <v>2.22031543545868e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999982732886857</v>
+        <v>0.9995752108747423</v>
       </c>
       <c r="D4" t="n">
-        <v>1.519908552994129e-07</v>
+        <v>0.0004243826327157069</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220458421353571e-14</v>
+        <v>2.22031543545868e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>1.370299144106011e-09</v>
+        <v>2.22031543545868e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>1.573344830419747e-06</v>
+        <v>2.622252501172513e-12</v>
       </c>
       <c r="H4" t="n">
-        <v>5.285007512962889e-12</v>
+        <v>4.064898533446414e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999982732886857</v>
+        <v>0.9995752108747423</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -617,32 +617,32 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG015.fasta</t>
+          <t>RUG009.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.659930280123411e-14</v>
+        <v>2.22044589921874e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9998520159926069</v>
+        <v>0.999994293273287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001479839882477976</v>
+        <v>3.468743955548084e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>2.221222189421341e-14</v>
+        <v>2.22044589921874e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>1.692584799299477e-11</v>
+        <v>4.065335565554851e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.078564200812177e-12</v>
+        <v>5.319149173891928e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>2.221222189421341e-14</v>
+        <v>4.974328150966668e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9998520159926069</v>
+        <v>0.999994293273287</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -658,32 +658,32 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG028.fasta</t>
+          <t>RUG015.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220461865415216e-14</v>
+        <v>1.973744682900389e-13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999737213999011</v>
+        <v>0.9999250222671532</v>
       </c>
       <c r="D6" t="n">
-        <v>2.627733824369581e-05</v>
+        <v>7.497749284712067e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220461865415216e-14</v>
+        <v>2.22083432301147e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220461865415216e-14</v>
+        <v>1.973159212996373e-10</v>
       </c>
       <c r="G6" t="n">
-        <v>2.039508178939363e-12</v>
+        <v>4.244190007376147e-11</v>
       </c>
       <c r="H6" t="n">
-        <v>1.259749186306275e-09</v>
+        <v>2.22083432301148e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9999737213999011</v>
+        <v>0.9999250222671532</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -699,32 +699,32 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG034.fasta</t>
+          <t>RUG028.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220137462157077e-14</v>
+        <v>2.220475705718664e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8039004950206247</v>
+        <v>0.9999741962408807</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1960995020365514</v>
+        <v>2.579837591362522e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220137462157077e-14</v>
+        <v>2.220475705718665e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220137462157077e-14</v>
+        <v>2.220475705718665e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.942735231857179e-09</v>
+        <v>1.03894969032528e-10</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220137462157077e-14</v>
+        <v>5.279244141290562e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8039004950206247</v>
+        <v>0.9999741962408807</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -744,28 +744,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220476685190652e-14</v>
+        <v>2.220444510584289e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999418172233813</v>
+        <v>0.9999141018541611</v>
       </c>
       <c r="D8" t="n">
-        <v>5.773991236058625e-05</v>
+        <v>7.38599081440197e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220476685190652e-14</v>
+        <v>2.220444510584289e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220476685190652e-14</v>
+        <v>2.220444510584289e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>4.428641126055455e-07</v>
+        <v>1.203823616665282e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>7.889226569564107e-14</v>
+        <v>1.461650255788433e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999418172233813</v>
+        <v>0.9999141018541611</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -781,32 +781,32 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG055.fasta</t>
+          <t>RUG066.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.704446541113619e-08</v>
+        <v>1.685618153087438e-11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9999017797956792</v>
+        <v>0.9999960698079411</v>
       </c>
       <c r="D9" t="n">
-        <v>9.088356490482602e-05</v>
+        <v>3.770726024210225e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220662046595331e-14</v>
+        <v>2.22047882568774e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220662046595339e-14</v>
+        <v>4.581202949408935e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>7.319594047056485e-06</v>
+        <v>1.135600006622327e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>8.591937665756707e-13</v>
+        <v>7.712611480225045e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999017797956792</v>
+        <v>0.9999960698079411</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -822,32 +822,32 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG060.fasta</t>
+          <t>RUG067.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.44458804106971e-07</v>
+        <v>2.221044642147754e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990711870061333</v>
+        <v>0.999426500836648</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0009286670250939248</v>
+        <v>0.0005730431437936865</v>
       </c>
       <c r="E10" t="n">
-        <v>2.22020002106545e-14</v>
+        <v>2.221044642147754e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>1.753640999936602e-12</v>
+        <v>2.221044642147754e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>1.429382342763499e-09</v>
+        <v>4.559986633061761e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>7.881047301034772e-11</v>
+        <v>2.08283992765108e-11</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9990711870061333</v>
+        <v>0.999426500836648</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -863,32 +863,32 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG066.fasta</t>
+          <t>RUG080.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.125640795711202e-11</v>
+        <v>3.768242810776242e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999971341717246</v>
+        <v>0.9885724089700039</v>
       </c>
       <c r="D11" t="n">
-        <v>2.700836618900503e-06</v>
+        <v>0.01142381560126515</v>
       </c>
       <c r="E11" t="n">
-        <v>2.220523343006628e-14</v>
+        <v>2.219916851554617e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>4.199288334919125e-08</v>
+        <v>2.219916851554617e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>1.229728661994292e-07</v>
+        <v>7.185661757055619e-09</v>
       </c>
       <c r="H11" t="n">
-        <v>1.462836556705983e-11</v>
+        <v>2.139377287352699e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9999971341717246</v>
+        <v>0.9885724089700039</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -904,32 +904,32 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG067.fasta</t>
+          <t>RUG084.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.220389327288444e-14</v>
+        <v>2.17194573618725e-13</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991972691155517</v>
+        <v>0.9844385368038375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0008027276420738417</v>
+        <v>2.065611858565348e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220389327288444e-14</v>
+        <v>2.219884786113357e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>2.220389327288444e-14</v>
+        <v>1.15641189025207e-12</v>
       </c>
       <c r="G12" t="n">
-        <v>3.222860707885175e-09</v>
+        <v>0.01554080674794866</v>
       </c>
       <c r="H12" t="n">
-        <v>1.944706218688268e-11</v>
+        <v>3.282323917926348e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9991972691155517</v>
+        <v>0.9844385368038375</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -945,32 +945,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG080.fasta</t>
+          <t>RUG088.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.16842764401961e-06</v>
+        <v>1.038306753522916e-10</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9899800944507051</v>
+        <v>0.9999819161688044</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01001869166153186</v>
+        <v>1.789311809178445e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>2.21991496054247e-14</v>
+        <v>2.220440930376081e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>2.21991496054247e-14</v>
+        <v>2.220440930376081e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>4.545995472330688e-08</v>
+        <v>9.563122502305588e-11</v>
       </c>
       <c r="H13" t="n">
-        <v>1.198989417690712e-13</v>
+        <v>1.905135976732853e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9899800944507051</v>
+        <v>0.9999819161688044</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -986,32 +986,32 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG084.fasta</t>
+          <t>RUG091.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.861509320351254e-13</v>
+        <v>1.087394568973228e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9965699840727841</v>
+        <v>0.9995966440987443</v>
       </c>
       <c r="D14" t="n">
-        <v>3.880528431487995e-05</v>
+        <v>6.354093167991382e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>2.21991492064083e-14</v>
+        <v>2.222869210745248e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>4.568215862682644e-12</v>
+        <v>1.800475989991062e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00339121036831305</v>
+        <v>0.0003789133392181609</v>
       </c>
       <c r="H14" t="n">
-        <v>2.698114127505638e-10</v>
+        <v>8.370883878476454e-08</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9965699840727841</v>
+        <v>0.9995966440987443</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1027,73 +1027,73 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG088.fasta</t>
+          <t>RUG093.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.15356930338305e-10</v>
+        <v>2.220354348869331e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999986775254759</v>
+        <v>0.4159512736354531</v>
       </c>
       <c r="D15" t="n">
-        <v>1.308216273793848e-05</v>
+        <v>0.5840487263490804</v>
       </c>
       <c r="E15" t="n">
-        <v>2.220442268102199e-14</v>
+        <v>2.220354348869331e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>8.092559861722598e-14</v>
+        <v>2.220354348869331e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>1.77295965553372e-10</v>
+        <v>1.429260563136647e-11</v>
       </c>
       <c r="H15" t="n">
-        <v>1.422897473023571e-07</v>
+        <v>1.107088926486427e-12</v>
       </c>
       <c r="I15" t="n">
-        <v>0.999986775254759</v>
+        <v>0.5840487263490804</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia_A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG091.fasta</t>
+          <t>RUG094.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.285035180275027e-14</v>
+        <v>2.220445924685113e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9983628990425191</v>
+        <v>0.9999988611302588</v>
       </c>
       <c r="D16" t="n">
-        <v>7.332397232590725e-06</v>
+        <v>1.138869630108464e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>3.28503518027342e-14</v>
+        <v>2.220445924685113e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>8.333484924301106e-07</v>
+        <v>2.220445924685113e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001628846251211212</v>
+        <v>2.220445924685113e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>8.896047901064098e-08</v>
+        <v>2.220445924685113e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9983628990425191</v>
+        <v>0.9999988611302588</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1109,73 +1109,73 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG093.fasta</t>
+          <t>RUG096.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.220367444346719e-14</v>
+        <v>2.220426363228797e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4217935437123665</v>
+        <v>0.9999263037070327</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5782064562572268</v>
+        <v>7.369629254139057e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>2.220367444346719e-14</v>
+        <v>2.220426363228797e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>2.220367444346719e-14</v>
+        <v>2.220426363228797e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>2.997427129503732e-11</v>
+        <v>3.370158897163436e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>3.656512021267525e-13</v>
+        <v>2.220426363228797e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5782064562572268</v>
+        <v>0.9999263037070327</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>c__Clostridia_A(reject)</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG094.fasta</t>
+          <t>RUG098.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.220445830262262e-14</v>
+        <v>2.22044581867697e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999987764059739</v>
+        <v>0.9999992204010942</v>
       </c>
       <c r="D18" t="n">
-        <v>1.223593915167328e-06</v>
+        <v>7.788244030815523e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>2.220445830262262e-14</v>
+        <v>2.22044581867697e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>2.220445830262262e-14</v>
+        <v>7.143929560845461e-12</v>
       </c>
       <c r="G18" t="n">
-        <v>2.220445830262262e-14</v>
+        <v>7.278432042327116e-10</v>
       </c>
       <c r="H18" t="n">
-        <v>2.220445830262262e-14</v>
+        <v>3.947099017216915e-11</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9999987764059739</v>
+        <v>0.9999992204010942</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1191,32 +1191,32 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG098.fasta</t>
+          <t>RUG099.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.220445758591206e-14</v>
+        <v>2.219908064015667e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999990600307817</v>
+        <v>0.9964874229696187</v>
       </c>
       <c r="D19" t="n">
-        <v>9.39768043428236e-07</v>
+        <v>0.003512571128092123</v>
       </c>
       <c r="E19" t="n">
-        <v>2.220445758591206e-14</v>
+        <v>2.219908064015667e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>9.225535770732804e-12</v>
+        <v>2.219908064015667e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>1.839687966753324e-10</v>
+        <v>5.902200237720053e-09</v>
       </c>
       <c r="H19" t="n">
-        <v>7.936149177579624e-12</v>
+        <v>2.219908064015667e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9999990600307817</v>
+        <v>0.9964874229696187</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1232,32 +1232,32 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG099.fasta</t>
+          <t>RUG100.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.219907448422848e-14</v>
+        <v>2.352845707476625e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9975308917415882</v>
+        <v>0.9824565316418604</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002469054319553131</v>
+        <v>0.01754198478928387</v>
       </c>
       <c r="E20" t="n">
-        <v>2.219907448422848e-14</v>
+        <v>2.352845707476626e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>2.219907448422848e-14</v>
+        <v>2.352845707476629e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>5.393877005543963e-08</v>
+        <v>1.473202648417555e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>2.219907448422848e-14</v>
+        <v>1.036613658426341e-08</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9975308917415882</v>
+        <v>0.9824565316418604</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1273,32 +1273,32 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG100.fasta</t>
+          <t>RUG104.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.21996777150474e-14</v>
+        <v>2.220443936808641e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9901265937025038</v>
+        <v>0.9999908523764953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.009873342093426862</v>
+        <v>9.147623393784452e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>2.21996777150474e-14</v>
+        <v>2.220443936808641e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>2.21996777150474e-14</v>
+        <v>2.220443936808641e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>5.268038791908373e-08</v>
+        <v>2.220443936808641e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>1.152361472759716e-08</v>
+        <v>2.220443936808641e-14</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9901265937025038</v>
+        <v>0.9999908523764953</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1314,32 +1314,32 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG104.fasta</t>
+          <t>RUG114.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.220443357549152e-14</v>
+        <v>2.219925323796438e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999887168344522</v>
+        <v>0.9833826711526106</v>
       </c>
       <c r="D22" t="n">
-        <v>1.128316543662204e-05</v>
+        <v>0.01661696396720019</v>
       </c>
       <c r="E22" t="n">
-        <v>2.220443357549152e-14</v>
+        <v>2.219925323796438e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>2.220443357549152e-14</v>
+        <v>2.219925323796438e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>2.220443357549152e-14</v>
+        <v>3.648801005832535e-07</v>
       </c>
       <c r="H22" t="n">
-        <v>2.220443357549152e-14</v>
+        <v>2.219925323796438e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9999887168344522</v>
+        <v>0.9833826711526106</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1355,32 +1355,32 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG105.fasta</t>
+          <t>RUG115.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.79213662688285e-14</v>
+        <v>1.334520563108052e-12</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9936215269430804</v>
+        <v>0.9999624532509752</v>
       </c>
       <c r="D23" t="n">
-        <v>0.006378441868701451</v>
+        <v>2.743036830343229e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>2.792136626882865e-14</v>
+        <v>2.220647147334564e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>2.792136626882865e-14</v>
+        <v>1.011562147924563e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.118742130205898e-08</v>
+        <v>7.578631596245678e-10</v>
       </c>
       <c r="H23" t="n">
-        <v>7.132776471839519e-13</v>
+        <v>2.220647147334564e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9936215269430804</v>
+        <v>0.9999624532509752</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1396,32 +1396,32 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG109.fasta</t>
+          <t>RUG117.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.4267267564376e-11</v>
+        <v>2.220385884627953e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>0.999103547902142</v>
+        <v>0.9997266546564024</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0008964503034703839</v>
+        <v>0.0002196519175659249</v>
       </c>
       <c r="E24" t="n">
-        <v>2.220195756762299e-14</v>
+        <v>2.220385884627953e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>6.260909822536294e-14</v>
+        <v>2.220385884627953e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>8.415822858574842e-13</v>
+        <v>5.369342587919508e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>1.769193768867975e-09</v>
+        <v>8.581045574047147e-14</v>
       </c>
       <c r="I24" t="n">
-        <v>0.999103547902142</v>
+        <v>0.9997266546564024</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1437,32 +1437,32 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG114.fasta</t>
+          <t>RUG122.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.521253785309586e-13</v>
+        <v>6.173872939408448e-09</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9867111148099296</v>
+        <v>0.9956136735781042</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01328807008365203</v>
+        <v>0.004386285463891759</v>
       </c>
       <c r="E25" t="n">
-        <v>2.219918515944455e-14</v>
+        <v>2.219909704379367e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>2.219918515944455e-14</v>
+        <v>5.669241918804895e-11</v>
       </c>
       <c r="G25" t="n">
-        <v>8.151060996842235e-07</v>
+        <v>1.41471091340538e-09</v>
       </c>
       <c r="H25" t="n">
-        <v>2.219918515944455e-14</v>
+        <v>3.331270557305424e-08</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9867111148099296</v>
+        <v>0.9956136735781042</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1478,32 +1478,32 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG117.fasta</t>
+          <t>RUG127.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.220404183177275e-14</v>
+        <v>3.682818636511001e-09</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9997414951846471</v>
+        <v>0.9913280854856132</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002374233555913723</v>
+        <v>0.008671893861262376</v>
       </c>
       <c r="E26" t="n">
-        <v>2.220404183177275e-14</v>
+        <v>2.219916395848106e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>2.220404183177275e-14</v>
+        <v>2.219916395848106e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>2.108145965444983e-05</v>
+        <v>1.697019640553645e-08</v>
       </c>
       <c r="H26" t="n">
-        <v>4.036283015681737e-14</v>
+        <v>6.506516182618855e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9997414951846471</v>
+        <v>0.9913280854856132</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1519,32 +1519,32 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG119.fasta</t>
+          <t>RUG128.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.632305875560742e-08</v>
+        <v>1.155705805283345e-13</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9908391043320902</v>
+        <v>0.9968248923650417</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009154517904391627</v>
+        <v>0.003175107630781258</v>
       </c>
       <c r="E27" t="n">
-        <v>5.761333714478868e-14</v>
+        <v>2.220100322210545e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>6.048056979114776e-06</v>
+        <v>3.994880855713993e-12</v>
       </c>
       <c r="G27" t="n">
-        <v>2.833794312347564e-07</v>
+        <v>2.220100322210545e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>3.991261632837481e-12</v>
+        <v>2.220100322210545e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9908391043320902</v>
+        <v>0.9968248923650417</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1560,32 +1560,32 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RUG122.fasta</t>
+          <t>RUG132.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.908826935509192e-09</v>
+        <v>1.195499220669365e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9960413957420499</v>
+        <v>0.99137835387898</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003958594750103567</v>
+        <v>0.008621525234123698</v>
       </c>
       <c r="E28" t="n">
-        <v>2.219909765305571e-14</v>
+        <v>2.219914049943672e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>1.237136666449767e-10</v>
+        <v>2.219914049943672e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>1.46070593903571e-09</v>
+        <v>1.258984060965635e-09</v>
       </c>
       <c r="H28" t="n">
-        <v>3.014578050290166e-09</v>
+        <v>7.794586053614748e-11</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9960413957420499</v>
+        <v>0.99137835387898</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1601,32 +1601,32 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>RUG132.fasta</t>
+          <t>RUG135.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.846251438646666e-09</v>
+        <v>2.223400597162592e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9900168751625597</v>
+        <v>0.998933060457724</v>
       </c>
       <c r="D29" t="n">
-        <v>0.009983031795160005</v>
+        <v>0.00106693954216494</v>
       </c>
       <c r="E29" t="n">
-        <v>2.219914718182627e-14</v>
+        <v>2.223400597162592e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>2.219914718182627e-14</v>
+        <v>2.223400597162592e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>8.886091001198562e-08</v>
+        <v>2.223400597162592e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>3.350742765915419e-10</v>
+        <v>2.223400597162592e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9900168751625597</v>
+        <v>0.998933060457724</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1642,32 +1642,32 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>RUG135.fasta</t>
+          <t>RUG145.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.223283067421763e-14</v>
+        <v>3.952475036774045e-11</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9993439605468222</v>
+        <v>0.984950350346137</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0006560394530667549</v>
+        <v>0.0150496465917403</v>
       </c>
       <c r="E30" t="n">
-        <v>2.223283067421763e-14</v>
+        <v>2.219921935266061e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>2.22328306742177e-14</v>
+        <v>2.247947546485947e-10</v>
       </c>
       <c r="G30" t="n">
-        <v>2.223283067421762e-14</v>
+        <v>2.797234824208663e-09</v>
       </c>
       <c r="H30" t="n">
-        <v>2.223283067421762e-14</v>
+        <v>5.461341210579617e-13</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9993439605468222</v>
+        <v>0.984950350346137</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1683,32 +1683,32 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>RUG138.fasta</t>
+          <t>RUG149.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.230848603496147e-14</v>
+        <v>6.481403206858437e-11</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9974960395868354</v>
+        <v>0.9999891840847779</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002503827350301275</v>
+        <v>1.074977708044174e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>2.230848603496145e-14</v>
+        <v>2.220443096197091e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>2.23084860349615e-14</v>
+        <v>2.460963313969851e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>1.330616573746234e-07</v>
+        <v>1.771117230638723e-10</v>
       </c>
       <c r="H31" t="n">
-        <v>1.139040158627645e-12</v>
+        <v>6.589616909272486e-08</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9974960395868354</v>
+        <v>0.9999891840847779</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1724,32 +1724,32 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>RUG145.fasta</t>
+          <t>RUG154.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.22260915561717e-10</v>
+        <v>8.102827157787889e-12</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9871057874491501</v>
+        <v>0.964156414199238</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01289416806095796</v>
+        <v>8.28134778568235e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>2.219920828511636e-14</v>
+        <v>2.219947458952218e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>2.848264983252528e-08</v>
+        <v>0.03576069705262559</v>
       </c>
       <c r="G32" t="n">
-        <v>1.587885233576339e-08</v>
+        <v>7.526213228948205e-08</v>
       </c>
       <c r="H32" t="n">
-        <v>6.106471602777286e-12</v>
+        <v>2.219947458952218e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9871057874491501</v>
+        <v>0.964156414199238</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1765,32 +1765,32 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>RUG149.fasta</t>
+          <t>RUG155.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.085347073621721e-11</v>
+        <v>2.220463420958843e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9999931270336313</v>
+        <v>0.9999957064089939</v>
       </c>
       <c r="D33" t="n">
-        <v>6.856829113651226e-06</v>
+        <v>4.293532703532654e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>2.220444671793429e-14</v>
+        <v>2.220463420958843e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>2.65402188422591e-13</v>
+        <v>4.270471071519181e-11</v>
       </c>
       <c r="G33" t="n">
-        <v>1.253653043262338e-09</v>
+        <v>1.553114741465362e-11</v>
       </c>
       <c r="H33" t="n">
-        <v>1.481246099027595e-08</v>
+        <v>2.220463420958859e-14</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9999931270336313</v>
+        <v>0.9999957064089939</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1806,32 +1806,32 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>RUG154.fasta</t>
+          <t>RUG158.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.625918365881082e-11</v>
+        <v>1.177939238612253e-12</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9801182727889082</v>
+        <v>0.999999702128852</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001769421797599194</v>
+        <v>2.904373601775431e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>2.678080310554758e-14</v>
+        <v>2.220445956613863e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01970471059754567</v>
+        <v>6.306941436069133e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>7.441747363740769e-08</v>
+        <v>7.255438048754599e-09</v>
       </c>
       <c r="H34" t="n">
-        <v>2.678080310554812e-14</v>
+        <v>1.770864828800011e-10</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9801182727889082</v>
+        <v>0.999999702128852</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1847,32 +1847,32 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>RUG155.fasta</t>
+          <t>RUG159.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.220472066928719e-14</v>
+        <v>2.22074548627312e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9999922761280547</v>
+        <v>0.9986904966029477</v>
       </c>
       <c r="D35" t="n">
-        <v>7.723810608302071e-06</v>
+        <v>0.001304861745274291</v>
       </c>
       <c r="E35" t="n">
-        <v>2.220472066928719e-14</v>
+        <v>2.22074548627312e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>6.034979100202233e-11</v>
+        <v>2.22074548627312e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>9.204347169001948e-13</v>
+        <v>4.641651513538201e-06</v>
       </c>
       <c r="H35" t="n">
-        <v>2.220472066928721e-14</v>
+        <v>1.978557962860107e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9999922761280547</v>
+        <v>0.9986904966029477</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1888,32 +1888,32 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RUG158.fasta</t>
+          <t>RUG170.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.421954659290151e-13</v>
+        <v>3.437069752643541e-09</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9999997864660488</v>
+        <v>0.9998386603408299</v>
       </c>
       <c r="D36" t="n">
-        <v>2.079065581418955e-07</v>
+        <v>0.0001519208127678662</v>
       </c>
       <c r="E36" t="n">
-        <v>2.220445982422374e-14</v>
+        <v>2.220519819229456e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>2.141377083832193e-13</v>
+        <v>4.925700891757921e-12</v>
       </c>
       <c r="G36" t="n">
-        <v>5.604112267008588e-09</v>
+        <v>9.415404264386297e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>2.260235381015534e-11</v>
+        <v>1.200515819143012e-13</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9999997864660488</v>
+        <v>0.9998386603408299</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1929,32 +1929,32 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RUG159.fasta</t>
+          <t>RUG171.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.220973849626168e-14</v>
+        <v>4.792481761369977e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0.999063357922215</v>
+        <v>0.9999987814044871</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0009282578952833652</v>
+        <v>1.156847055787784e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>2.220973849626169e-14</v>
+        <v>2.220603029755237e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>2.220973849626169e-14</v>
+        <v>4.777643339199433e-08</v>
       </c>
       <c r="G37" t="n">
-        <v>8.384182252163945e-06</v>
+        <v>1.359508822446486e-08</v>
       </c>
       <c r="H37" t="n">
-        <v>1.828484882882761e-13</v>
+        <v>3.768652409392137e-10</v>
       </c>
       <c r="I37" t="n">
-        <v>0.999063357922215</v>
+        <v>0.9999987814044871</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1970,32 +1970,32 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>RUG170.fasta</t>
+          <t>RUG183.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.601858796934969e-10</v>
+        <v>1.513326440996854e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>0.999835689342396</v>
+        <v>0.9992068782698249</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0001634912693542523</v>
+        <v>0.0007930981952836022</v>
       </c>
       <c r="E38" t="n">
-        <v>2.220422919918262e-14</v>
+        <v>2.220195886646924e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>2.218710012598612e-13</v>
+        <v>8.358162669111809e-09</v>
       </c>
       <c r="G38" t="n">
-        <v>8.192277975495126e-07</v>
+        <v>4.341405314605242e-11</v>
       </c>
       <c r="H38" t="n">
-        <v>2.220422919918262e-14</v>
+        <v>2.793539766085788e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.999835689342396</v>
+        <v>0.9992068782698249</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2011,32 +2011,32 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RUG171.fasta</t>
+          <t>RUG185.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.841447955303437e-14</v>
+        <v>2.220446003686152e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9999986419061339</v>
+        <v>0.9999992055263516</v>
       </c>
       <c r="D39" t="n">
-        <v>1.323493672168648e-06</v>
+        <v>7.745727763194134e-07</v>
       </c>
       <c r="E39" t="n">
-        <v>2.220520020387612e-14</v>
+        <v>2.220446003686152e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>2.921354091811144e-08</v>
+        <v>2.130743737425506e-11</v>
       </c>
       <c r="G39" t="n">
-        <v>5.304628072475913e-09</v>
+        <v>1.987816732225597e-08</v>
       </c>
       <c r="H39" t="n">
-        <v>8.197435211759566e-11</v>
+        <v>1.352870100588962e-12</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9999986419061339</v>
+        <v>0.9999992055263516</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2052,32 +2052,32 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>RUG183.fasta</t>
+          <t>RUG194.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.564927660117882e-09</v>
+        <v>5.919150238557681e-12</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9994442120446292</v>
+        <v>0.9992981359826313</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0005557694524992463</v>
+        <v>0.0007017928117464343</v>
       </c>
       <c r="E40" t="n">
-        <v>2.220270616419967e-14</v>
+        <v>2.220365574162647e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>8.893343791830185e-09</v>
+        <v>2.220365574162647e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>4.45500621893246e-11</v>
+        <v>7.119204370524363e-08</v>
       </c>
       <c r="H40" t="n">
-        <v>2.806607731743503e-14</v>
+        <v>7.615130939208856e-12</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9994442120446292</v>
+        <v>0.9992981359826313</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2093,32 +2093,32 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>RUG185.fasta</t>
+          <t>RUG211.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.220447350628947e-14</v>
+        <v>6.3188515788419e-10</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9999996692317065</v>
+        <v>0.9999033914422784</v>
       </c>
       <c r="D41" t="n">
-        <v>3.225825151722065e-07</v>
+        <v>9.646682212904366e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>2.220447350628947e-14</v>
+        <v>2.220428558571002e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>3.416997113928158e-12</v>
+        <v>2.590930011546519e-12</v>
       </c>
       <c r="G41" t="n">
-        <v>8.182170431419124e-09</v>
+        <v>1.411010720728893e-07</v>
       </c>
       <c r="H41" t="n">
-        <v>1.464483294433121e-13</v>
+        <v>2.220428558571002e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9999996692317065</v>
+        <v>0.9999033914422784</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2134,32 +2134,32 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>RUG190.fasta</t>
+          <t>RUG213.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.291769488888855e-11</v>
+        <v>7.915048658785664e-13</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9151647206219541</v>
+        <v>0.9999992279524553</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08011686422355442</v>
+        <v>7.53747333504394e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>4.456647251674425e-12</v>
+        <v>2.220445807490631e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>4.715655257859807e-11</v>
+        <v>1.921166428188171e-13</v>
       </c>
       <c r="G42" t="n">
-        <v>0.004718317178814055</v>
+        <v>1.763039477027007e-08</v>
       </c>
       <c r="H42" t="n">
-        <v>9.791114647597981e-08</v>
+        <v>6.688106369509507e-10</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9151647206219541</v>
+        <v>0.9999992279524553</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2175,32 +2175,32 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>RUG194.fasta</t>
+          <t>RUG217.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.497071976992232e-11</v>
+        <v>2.220462706043757e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9992651272863103</v>
+        <v>0.9999953142259903</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0007348355512897284</v>
+        <v>4.685702907207483e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>2.220314455704247e-14</v>
+        <v>2.220462706043757e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>2.220314455704247e-14</v>
+        <v>2.799527604710844e-11</v>
       </c>
       <c r="G43" t="n">
-        <v>3.7122850175782e-08</v>
+        <v>4.303979978132118e-11</v>
       </c>
       <c r="H43" t="n">
-        <v>4.534509661953949e-12</v>
+        <v>2.299892135607155e-14</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9992651272863103</v>
+        <v>0.9999953142259903</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2216,32 +2216,32 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RUG198.fasta</t>
+          <t>RUG218.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.220919426632804e-14</v>
+        <v>2.220467191663317e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9998980788420965</v>
+        <v>0.9999957948205711</v>
       </c>
       <c r="D44" t="n">
-        <v>7.615232478229899e-05</v>
+        <v>4.205146568690816e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>2.220919426632804e-14</v>
+        <v>2.220467191663318e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>2.220919426632804e-14</v>
+        <v>2.975692999963291e-11</v>
       </c>
       <c r="G44" t="n">
-        <v>2.576129963514181e-05</v>
+        <v>3.036635687862562e-12</v>
       </c>
       <c r="H44" t="n">
-        <v>7.53341944733464e-09</v>
+        <v>2.220467191663333e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9998980788420965</v>
+        <v>0.9999957948205711</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2257,32 +2257,32 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>RUG211.fasta</t>
+          <t>RUG220.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.08534656759442e-11</v>
+        <v>2.220444134721968e-14</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9999716143114424</v>
+        <v>0.9999915259191194</v>
       </c>
       <c r="D45" t="n">
-        <v>2.838480920562545e-05</v>
+        <v>8.474080769632828e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>2.220439272076807e-14</v>
+        <v>2.220444134721968e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>2.034627969640321e-11</v>
+        <v>2.220444134721968e-14</v>
       </c>
       <c r="G45" t="n">
-        <v>8.381076937650337e-10</v>
+        <v>2.220444134721968e-14</v>
       </c>
       <c r="H45" t="n">
-        <v>2.220439272076807e-14</v>
+        <v>2.220444134721968e-14</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9999716143114424</v>
+        <v>0.9999915259191194</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2298,32 +2298,32 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>RUG213.fasta</t>
+          <t>RUG221.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.815581352229925e-14</v>
+        <v>3.748042812641507e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9999997439264871</v>
+        <v>0.9966955520693578</v>
       </c>
       <c r="D46" t="n">
-        <v>2.366980856786223e-07</v>
+        <v>0.003304447930454494</v>
       </c>
       <c r="E46" t="n">
-        <v>2.22044596912286e-14</v>
+        <v>3.748042812641514e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>2.241502316679738e-13</v>
+        <v>3.748042812641524e-14</v>
       </c>
       <c r="G46" t="n">
-        <v>1.912495325104121e-08</v>
+        <v>3.748042812641551e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>2.50179582307031e-10</v>
+        <v>3.748042812641524e-14</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9999997439264871</v>
+        <v>0.9966955520693578</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2339,32 +2339,32 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>RUG217.fasta</t>
+          <t>RUG223.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.220459215211566e-14</v>
+        <v>6.071686027157747e-08</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9999918427116496</v>
+        <v>0.9955420568355388</v>
       </c>
       <c r="D47" t="n">
-        <v>8.157079453662481e-06</v>
+        <v>0.004436499710750805</v>
       </c>
       <c r="E47" t="n">
-        <v>2.220459215211566e-14</v>
+        <v>2.219913812462855e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>5.9912380510252e-11</v>
+        <v>2.138256829331084e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>1.489177501191947e-10</v>
+        <v>1.681891777577126e-10</v>
       </c>
       <c r="H47" t="n">
-        <v>2.220459215211574e-14</v>
+        <v>3.455561718199075e-13</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9999918427116496</v>
+        <v>0.9955420568355388</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2380,32 +2380,32 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>RUG218.fasta</t>
+          <t>RUG226.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.220481455623351e-14</v>
+        <v>2.220971045683373e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9999936139897201</v>
+        <v>0.9998716466421694</v>
       </c>
       <c r="D48" t="n">
-        <v>6.38597924031651e-06</v>
+        <v>0.0001078612471818251</v>
       </c>
       <c r="E48" t="n">
-        <v>2.220481455623351e-14</v>
+        <v>2.220971045683373e-14</v>
       </c>
       <c r="F48" t="n">
-        <v>2.871439327166937e-11</v>
+        <v>3.018642954291008e-11</v>
       </c>
       <c r="G48" t="n">
-        <v>2.258673194775782e-12</v>
+        <v>2.032407123048858e-05</v>
       </c>
       <c r="H48" t="n">
-        <v>2.22048145562336e-14</v>
+        <v>1.680091874803904e-07</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9999936139897201</v>
+        <v>0.9998716466421694</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2421,32 +2421,32 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>RUG220.fasta</t>
+          <t>RUG240.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.220441970256622e-14</v>
+        <v>2.21991052649895e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9999835803494909</v>
+        <v>0.9948657611205968</v>
       </c>
       <c r="D49" t="n">
-        <v>1.641965039813893e-05</v>
+        <v>0.005134238879292223</v>
       </c>
       <c r="E49" t="n">
-        <v>2.220441970256622e-14</v>
+        <v>2.21991052649895e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>2.220441970256622e-14</v>
+        <v>2.21991052649895e-14</v>
       </c>
       <c r="G49" t="n">
-        <v>2.220441970256622e-14</v>
+        <v>2.21991052649895e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>2.220441970256622e-14</v>
+        <v>2.21991052649895e-14</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9999835803494909</v>
+        <v>0.9948657611205968</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2462,32 +2462,32 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>RUG221.fasta</t>
+          <t>RUG251.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8.842783201063249e-14</v>
+        <v>2.220445324523598e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9979511132047307</v>
+        <v>0.9997105673986734</v>
       </c>
       <c r="D50" t="n">
-        <v>0.002048886781244507</v>
+        <v>0.0002894326010662997</v>
       </c>
       <c r="E50" t="n">
-        <v>8.84278320106326e-14</v>
+        <v>2.220445324523598e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>1.367113350025624e-11</v>
+        <v>2.220445324523598e-14</v>
       </c>
       <c r="G50" t="n">
-        <v>8.842783201063397e-14</v>
+        <v>1.71314395493113e-13</v>
       </c>
       <c r="H50" t="n">
-        <v>8.842783201063341e-14</v>
+        <v>2.220445324523598e-14</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9979511132047307</v>
+        <v>0.9997105673986734</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2503,32 +2503,32 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>RUG223.fasta</t>
+          <t>RUG252.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6.773148379801922e-08</v>
+        <v>2.219909862485374e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9961606179262771</v>
+        <v>0.9956479019241421</v>
       </c>
       <c r="D51" t="n">
-        <v>0.003827274672888006</v>
+        <v>0.004352098075746856</v>
       </c>
       <c r="E51" t="n">
-        <v>2.219911112920124e-14</v>
+        <v>2.219909862485374e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>1.203921283110422e-05</v>
+        <v>2.219909862485374e-14</v>
       </c>
       <c r="G51" t="n">
-        <v>4.561635493303717e-10</v>
+        <v>2.219909862485374e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>3.343514268660854e-13</v>
+        <v>2.219909862485374e-14</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9961606179262771</v>
+        <v>0.9956479019241421</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2544,32 +2544,32 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>RUG226.fasta</t>
+          <t>RUG254.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.220518884181242e-14</v>
+        <v>2.220445315763269e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9999212722107632</v>
+        <v>0.9999883921238661</v>
       </c>
       <c r="D52" t="n">
-        <v>6.31286536096311e-05</v>
+        <v>1.149958897578067e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>2.220518884181242e-14</v>
+        <v>2.220445315763269e-14</v>
       </c>
       <c r="F52" t="n">
-        <v>1.986620375298403e-12</v>
+        <v>2.220445315763269e-14</v>
       </c>
       <c r="G52" t="n">
-        <v>1.555639562209695e-05</v>
+        <v>1.082488233389516e-07</v>
       </c>
       <c r="H52" t="n">
-        <v>4.273797397535556e-08</v>
+        <v>3.826818319779083e-11</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9999212722107632</v>
+        <v>0.9999883921238661</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2585,32 +2585,32 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>RUG230.fasta</t>
+          <t>RUG260.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.785812232018835e-14</v>
+        <v>5.055295253533212e-10</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9949928298858397</v>
+        <v>0.9999705074141776</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005007145915636538</v>
+        <v>1.544478514585107e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>3.78581223201884e-14</v>
+        <v>2.220443798574924e-14</v>
       </c>
       <c r="F53" t="n">
-        <v>3.785812232019567e-14</v>
+        <v>1.404691422344262e-05</v>
       </c>
       <c r="G53" t="n">
-        <v>2.418839511914086e-08</v>
+        <v>3.617029911324987e-10</v>
       </c>
       <c r="H53" t="n">
-        <v>1.001506631377716e-11</v>
+        <v>1.919843000669027e-11</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9949928298858397</v>
+        <v>0.9999705074141776</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2626,32 +2626,32 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>RUG231.fasta</t>
+          <t>RUG267.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.555061555861594e-07</v>
+        <v>1.079486428325327e-09</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9975027177380852</v>
+        <v>0.9937520999984053</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002228661758551349</v>
+        <v>0.00624696990538235</v>
       </c>
       <c r="E54" t="n">
-        <v>2.219982376103853e-14</v>
+        <v>2.219911590674753e-14</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0002670390570942398</v>
+        <v>2.219911590674753e-14</v>
       </c>
       <c r="G54" t="n">
-        <v>1.125936725780846e-06</v>
+        <v>9.29016230724755e-07</v>
       </c>
       <c r="H54" t="n">
-        <v>3.365620123840021e-12</v>
+        <v>4.505642727865289e-13</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9975027177380852</v>
+        <v>0.9937520999984053</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2667,32 +2667,32 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>RUG240.fasta</t>
+          <t>RUG270.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.219913534421776e-14</v>
+        <v>2.220462771165116e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9926681870639642</v>
+        <v>0.9999944508996356</v>
       </c>
       <c r="D55" t="n">
-        <v>0.007331812935924892</v>
+        <v>5.5490367309879e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>2.219913534421776e-14</v>
+        <v>2.220462771165116e-14</v>
       </c>
       <c r="F55" t="n">
-        <v>2.219913534421776e-14</v>
+        <v>1.198282328533536e-11</v>
       </c>
       <c r="G55" t="n">
-        <v>2.219913534421776e-14</v>
+        <v>5.158395818654733e-11</v>
       </c>
       <c r="H55" t="n">
-        <v>2.219913534421776e-14</v>
+        <v>2.220462771165135e-14</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9926681870639642</v>
+        <v>0.9999944508996356</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2708,32 +2708,32 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>RUG248.fasta</t>
+          <t>RUG271.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.220391325550111e-14</v>
+        <v>2.220461618956488e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9996089483304538</v>
+        <v>0.9999953108462714</v>
       </c>
       <c r="D56" t="n">
-        <v>6.04192737883166e-05</v>
+        <v>4.689090600283966e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>2.220391325550111e-14</v>
+        <v>2.220461618956488e-14</v>
       </c>
       <c r="F56" t="n">
-        <v>7.525295382544983e-14</v>
+        <v>3.793721761266278e-11</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0003306281393611196</v>
+        <v>2.512445460488234e-11</v>
       </c>
       <c r="H56" t="n">
-        <v>4.256277153139466e-09</v>
+        <v>2.220461618956503e-14</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9996089483304538</v>
+        <v>0.9999953108462714</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2749,32 +2749,32 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>RUG251.fasta</t>
+          <t>RUG277.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.220824768286517e-14</v>
+        <v>2.220463600154544e-14</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9995851089490381</v>
+        <v>0.9999960944838819</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0004148910505461466</v>
+        <v>3.9054660848043e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>2.220824768286517e-14</v>
+        <v>2.220463600154544e-14</v>
       </c>
       <c r="F57" t="n">
-        <v>2.220824768286517e-14</v>
+        <v>4.757327132612867e-11</v>
       </c>
       <c r="G57" t="n">
-        <v>3.269886153925548e-13</v>
+        <v>2.39345181525115e-12</v>
       </c>
       <c r="H57" t="n">
-        <v>2.220824768286517e-14</v>
+        <v>2.220463600154557e-14</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9995851089490381</v>
+        <v>0.9999960944838819</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2790,32 +2790,32 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>RUG254.fasta</t>
+          <t>RUG282.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.220445057909255e-14</v>
+        <v>3.466294665042996e-14</v>
       </c>
       <c r="C58" t="n">
-        <v>0.999984155701708</v>
+        <v>0.9949204229953204</v>
       </c>
       <c r="D58" t="n">
-        <v>1.579815747294783e-05</v>
+        <v>0.005079575782356857</v>
       </c>
       <c r="E58" t="n">
-        <v>2.220445057909255e-14</v>
+        <v>3.466294665043005e-14</v>
       </c>
       <c r="F58" t="n">
-        <v>2.220445057909255e-14</v>
+        <v>3.466294665043005e-14</v>
       </c>
       <c r="G58" t="n">
-        <v>4.610803767026558e-08</v>
+        <v>1.216460359333212e-09</v>
       </c>
       <c r="H58" t="n">
-        <v>3.271500426106889e-11</v>
+        <v>5.758413112153371e-12</v>
       </c>
       <c r="I58" t="n">
-        <v>0.999984155701708</v>
+        <v>0.9949204229953204</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2831,32 +2831,32 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>RUG260.fasta</t>
+          <t>RUG289.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.053868315321448e-09</v>
+        <v>9.971024109191918e-14</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9999276691835605</v>
+        <v>0.9954494763191277</v>
       </c>
       <c r="D59" t="n">
-        <v>3.055076671308783e-05</v>
+        <v>0.004549624529827525</v>
       </c>
       <c r="E59" t="n">
-        <v>2.220438822560413e-14</v>
+        <v>9.971024109192068e-14</v>
       </c>
       <c r="F59" t="n">
-        <v>4.177553107471512e-05</v>
+        <v>9.971024109191994e-14</v>
       </c>
       <c r="G59" t="n">
-        <v>4.61329114375492e-10</v>
+        <v>8.97900635176783e-07</v>
       </c>
       <c r="H59" t="n">
-        <v>3.432108401391944e-12</v>
+        <v>1.250110364298514e-09</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9999276691835605</v>
+        <v>0.9954494763191277</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2872,32 +2872,32 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>RUG267.fasta</t>
+          <t>RUG291.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.561431247308031e-10</v>
+        <v>3.639352927625305e-13</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9960688972525884</v>
+        <v>0.9999357759372918</v>
       </c>
       <c r="D60" t="n">
-        <v>0.003930241903784726</v>
+        <v>6.422396487662464e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>2.219909747733568e-14</v>
+        <v>2.220425754217869e-14</v>
       </c>
       <c r="F60" t="n">
-        <v>2.219909747733568e-14</v>
+        <v>1.03809258346973e-13</v>
       </c>
       <c r="G60" t="n">
-        <v>8.603867419972456e-07</v>
+        <v>1.488617711375548e-13</v>
       </c>
       <c r="H60" t="n">
-        <v>6.972737974032073e-13</v>
+        <v>9.71927575780443e-11</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9960688972525884</v>
+        <v>0.9999357759372918</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2913,32 +2913,32 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>RUG270.fasta</t>
+          <t>RUG296.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.220481452637675e-14</v>
+        <v>5.973856263110639e-14</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9999851048272858</v>
+        <v>0.9988833418090152</v>
       </c>
       <c r="D61" t="n">
-        <v>1.4895169184688e-05</v>
+        <v>0.001116658190686155</v>
       </c>
       <c r="E61" t="n">
-        <v>2.220481452637675e-14</v>
+        <v>5.973856263111746e-14</v>
       </c>
       <c r="F61" t="n">
-        <v>1.52528052523341e-12</v>
+        <v>5.973856263111827e-14</v>
       </c>
       <c r="G61" t="n">
-        <v>1.937749964578898e-12</v>
+        <v>5.97385626312457e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>2.220481452637677e-14</v>
+        <v>5.973856263111799e-14</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9999851048272858</v>
+        <v>0.9988833418090152</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2954,32 +2954,32 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>RUG271.fasta</t>
+          <t>RUG297.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.220454117756745e-14</v>
+        <v>5.108329121656751e-09</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9999985365014765</v>
+        <v>0.998686016985009</v>
       </c>
       <c r="D62" t="n">
-        <v>1.4634116640432e-06</v>
+        <v>0.001273845957061538</v>
       </c>
       <c r="E62" t="n">
-        <v>2.220454117756745e-14</v>
+        <v>2.220239232224562e-14</v>
       </c>
       <c r="F62" t="n">
-        <v>8.677057149448401e-11</v>
+        <v>6.853740740613607e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>2.220454117756754e-14</v>
+        <v>3.327820808755137e-05</v>
       </c>
       <c r="H62" t="n">
-        <v>2.22045411775675e-14</v>
+        <v>7.499981032939044e-13</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9999985365014765</v>
+        <v>0.998686016985009</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2995,32 +2995,32 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>RUG277.fasta</t>
+          <t>RUG304.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.220465528353093e-14</v>
+        <v>5.895895370214179e-14</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9999936761384189</v>
+        <v>0.9976463407318856</v>
       </c>
       <c r="D63" t="n">
-        <v>6.323826688359718e-06</v>
+        <v>0.002348304052918047</v>
       </c>
       <c r="E63" t="n">
-        <v>2.220465528353093e-14</v>
+        <v>5.89589537021421e-14</v>
       </c>
       <c r="F63" t="n">
-        <v>8.017272633461612e-12</v>
+        <v>5.895895370214194e-14</v>
       </c>
       <c r="G63" t="n">
-        <v>2.680878686882009e-11</v>
+        <v>5.354722521678747e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>2.220465528353105e-14</v>
+        <v>4.924977110424386e-10</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9999936761384189</v>
+        <v>0.9976463407318856</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3036,32 +3036,32 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>RUG282.fasta</t>
+          <t>RUG305.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.539947888802471e-14</v>
+        <v>1.072346443410203e-13</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9959304634627534</v>
+        <v>0.9998448436648488</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004069531785548366</v>
+        <v>0.0001271216675091535</v>
       </c>
       <c r="E64" t="n">
-        <v>2.539947888802411e-14</v>
+        <v>2.220623608466898e-14</v>
       </c>
       <c r="F64" t="n">
-        <v>2.539947888802415e-14</v>
+        <v>2.686510694333571e-06</v>
       </c>
       <c r="G64" t="n">
-        <v>4.735139529831193e-09</v>
+        <v>2.534815671921261e-05</v>
       </c>
       <c r="H64" t="n">
-        <v>1.64823454418489e-11</v>
+        <v>9.903856415694865e-14</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9959304634627534</v>
+        <v>0.9998448436648488</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3077,32 +3077,32 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>RUG285.fasta</t>
+          <t>RUG308.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.22059755687789e-14</v>
+        <v>2.2205935208535e-14</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9999316410722946</v>
+        <v>0.9999165224365515</v>
       </c>
       <c r="D65" t="n">
-        <v>6.835821594350085e-05</v>
+        <v>8.347182510489764e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>2.22059755687789e-14</v>
+        <v>2.2205935208535e-14</v>
       </c>
       <c r="F65" t="n">
-        <v>2.22059755687789e-14</v>
+        <v>2.2205935208535e-14</v>
       </c>
       <c r="G65" t="n">
-        <v>2.702700644996529e-10</v>
+        <v>5.166001787435002e-09</v>
       </c>
       <c r="H65" t="n">
-        <v>4.414251737449588e-10</v>
+        <v>5.722751702463783e-10</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9999316410722946</v>
+        <v>0.9999165224365515</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3118,32 +3118,32 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>RUG289.fasta</t>
+          <t>RUG313.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.002270250987573e-13</v>
+        <v>2.220444317279658e-14</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9927746620336204</v>
+        <v>0.9999921444273284</v>
       </c>
       <c r="D66" t="n">
-        <v>0.007224501969342062</v>
+        <v>7.855572560662997e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>1.002270250987669e-13</v>
+        <v>2.220444317279658e-14</v>
       </c>
       <c r="F66" t="n">
-        <v>1.002270250987665e-13</v>
+        <v>2.220444317279658e-14</v>
       </c>
       <c r="G66" t="n">
-        <v>8.356936630048326e-07</v>
+        <v>2.220444317279658e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>3.030737023788001e-10</v>
+        <v>2.220444317279658e-14</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9927746620336204</v>
+        <v>0.9999921444273284</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3159,32 +3159,32 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>RUG290.fasta</t>
+          <t>RUG321.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.338753300436781e-14</v>
+        <v>2.220210896496842e-14</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9967740152309207</v>
+        <v>0.9990501953581836</v>
       </c>
       <c r="D67" t="n">
-        <v>0.003225632959199799</v>
+        <v>0.0009498039851341187</v>
       </c>
       <c r="E67" t="n">
-        <v>2.338753300436781e-14</v>
+        <v>2.220210896496842e-14</v>
       </c>
       <c r="F67" t="n">
-        <v>2.338753300436781e-14</v>
+        <v>2.220210896496842e-14</v>
       </c>
       <c r="G67" t="n">
-        <v>3.518088965142031e-07</v>
+        <v>6.565934269982133e-10</v>
       </c>
       <c r="H67" t="n">
-        <v>9.126774181562334e-13</v>
+        <v>2.220210896496842e-14</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9967740152309207</v>
+        <v>0.9990501953581836</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3200,32 +3200,32 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>RUG291.fasta</t>
+          <t>RUG327.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.769833021650351e-12</v>
+        <v>2.220444926563997e-14</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9999507741158413</v>
+        <v>0.9999950666219751</v>
       </c>
       <c r="D68" t="n">
-        <v>4.922586107855282e-05</v>
+        <v>4.921054855927673e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>2.220430486747591e-14</v>
+        <v>2.220444926563997e-14</v>
       </c>
       <c r="F68" t="n">
-        <v>3.757707187128026e-13</v>
+        <v>2.220444926563997e-14</v>
       </c>
       <c r="G68" t="n">
-        <v>1.700621706227417e-13</v>
+        <v>9.564334695306961e-09</v>
       </c>
       <c r="H68" t="n">
-        <v>1.974221674529681e-11</v>
+        <v>2.758767590753496e-09</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9999507741158413</v>
+        <v>0.9999950666219751</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3241,32 +3241,32 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>RUG296.fasta</t>
+          <t>RUG332.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.394874859053174e-13</v>
+        <v>2.220698527300306e-14</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9976394154410013</v>
+        <v>0.999978685209541</v>
       </c>
       <c r="D69" t="n">
-        <v>0.002360584558301289</v>
+        <v>2.13147903479902e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>1.394874859052948e-13</v>
+        <v>2.220698527300306e-14</v>
       </c>
       <c r="F69" t="n">
-        <v>1.394874859052971e-13</v>
+        <v>2.220698527300306e-14</v>
       </c>
       <c r="G69" t="n">
-        <v>1.394874859054458e-13</v>
+        <v>2.220698527300306e-14</v>
       </c>
       <c r="H69" t="n">
-        <v>1.394874859052955e-13</v>
+        <v>2.220698527300306e-14</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9976394154410013</v>
+        <v>0.999978685209541</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3282,32 +3282,32 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>RUG297.fasta</t>
+          <t>RUG335.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.340655620410583e-09</v>
+        <v>2.210499441198957e-13</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9983924663274085</v>
+        <v>0.9999970061167346</v>
       </c>
       <c r="D70" t="n">
-        <v>0.001540152562911129</v>
+        <v>2.920398952363013e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>2.220147642952721e-14</v>
+        <v>2.22044581148448e-14</v>
       </c>
       <c r="F70" t="n">
-        <v>1.522173242432235e-06</v>
+        <v>2.22044581148448e-14</v>
       </c>
       <c r="G70" t="n">
-        <v>6.585659564848605e-05</v>
+        <v>7.348402546404439e-08</v>
       </c>
       <c r="H70" t="n">
-        <v>1.115079089231706e-13</v>
+        <v>2.22044581148448e-14</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9983924663274085</v>
+        <v>0.9999970061167346</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3323,32 +3323,32 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>RUG299.fasta</t>
+          <t>RUG341.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.220444984594537e-14</v>
+        <v>2.220463811865047e-14</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9999699797084738</v>
+        <v>0.9999958264262614</v>
       </c>
       <c r="D71" t="n">
-        <v>3.001997201605795e-05</v>
+        <v>4.173529828763019e-06</v>
       </c>
       <c r="E71" t="n">
-        <v>2.220444984594537e-14</v>
+        <v>2.220463811865047e-14</v>
       </c>
       <c r="F71" t="n">
-        <v>3.194212877568375e-10</v>
+        <v>3.23934065819763e-11</v>
       </c>
       <c r="G71" t="n">
-        <v>2.220444984594537e-14</v>
+        <v>1.144969627919912e-11</v>
       </c>
       <c r="H71" t="n">
-        <v>2.220444984594537e-14</v>
+        <v>2.220463811865064e-14</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9999699797084738</v>
+        <v>0.9999958264262614</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3364,32 +3364,32 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>RUG300.fasta</t>
+          <t>RUG342.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.22044595876643e-14</v>
+        <v>2.220445944094075e-14</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9999980415032688</v>
+        <v>0.9999688117200735</v>
       </c>
       <c r="D72" t="n">
-        <v>1.958496620123183e-06</v>
+        <v>3.118827971511636e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>2.22044595876643e-14</v>
+        <v>2.220445944094075e-14</v>
       </c>
       <c r="F72" t="n">
-        <v>2.22044595876643e-14</v>
+        <v>1.22534788810847e-13</v>
       </c>
       <c r="G72" t="n">
-        <v>2.22044595876643e-14</v>
+        <v>2.220445944094075e-14</v>
       </c>
       <c r="H72" t="n">
-        <v>2.22044595876643e-14</v>
+        <v>2.220445944094075e-14</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9999980415032688</v>
+        <v>0.9999688117200735</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3405,32 +3405,32 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>RUG304.fasta</t>
+          <t>RUG347.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2.224517342578155e-14</v>
+        <v>2.220445748321076e-14</v>
       </c>
       <c r="C73" t="n">
-        <v>0.999454135768516</v>
+        <v>0.9999987044279743</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0005458568382603601</v>
+        <v>1.295571914615596e-06</v>
       </c>
       <c r="E73" t="n">
-        <v>2.224517342578155e-14</v>
+        <v>2.220445748321076e-14</v>
       </c>
       <c r="F73" t="n">
-        <v>2.224517342578155e-14</v>
+        <v>2.220445748321076e-14</v>
       </c>
       <c r="G73" t="n">
-        <v>7.380855008737339e-09</v>
+        <v>2.220445748321076e-14</v>
       </c>
       <c r="H73" t="n">
-        <v>1.230203847434451e-11</v>
+        <v>2.220445748321076e-14</v>
       </c>
       <c r="I73" t="n">
-        <v>0.999454135768516</v>
+        <v>0.9999987044279743</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3446,32 +3446,32 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>RUG305.fasta</t>
+          <t>RUG349.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.220595129926513e-14</v>
+        <v>2.219912067658861e-14</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9998791812235688</v>
+        <v>0.9875695724771499</v>
       </c>
       <c r="D74" t="n">
-        <v>8.528360608648664e-05</v>
+        <v>0.01242181656441565</v>
       </c>
       <c r="E74" t="n">
-        <v>2.220595129926511e-14</v>
+        <v>2.219912067658861e-14</v>
       </c>
       <c r="F74" t="n">
-        <v>4.841087796753087e-07</v>
+        <v>2.219912067658861e-14</v>
       </c>
       <c r="G74" t="n">
-        <v>3.505106149840669e-05</v>
+        <v>8.610958035129414e-06</v>
       </c>
       <c r="H74" t="n">
-        <v>2.220595129926527e-14</v>
+        <v>3.327716049012015e-13</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9998791812235688</v>
+        <v>0.9875695724771499</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3487,32 +3487,32 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>RUG320.fasta</t>
+          <t>RUG356.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.406503993226157e-14</v>
+        <v>1.048617386721576e-13</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9907540498101296</v>
+        <v>0.995448718331473</v>
       </c>
       <c r="D75" t="n">
-        <v>0.009245950188285199</v>
+        <v>0.004549851951387255</v>
       </c>
       <c r="E75" t="n">
-        <v>4.406503993226164e-14</v>
+        <v>1.048617386721581e-13</v>
       </c>
       <c r="F75" t="n">
-        <v>4.406503993226177e-14</v>
+        <v>1.048617386721581e-13</v>
       </c>
       <c r="G75" t="n">
-        <v>4.406503993234926e-14</v>
+        <v>1.428447745848462e-06</v>
       </c>
       <c r="H75" t="n">
-        <v>1.408730338299404e-12</v>
+        <v>1.269079363506505e-09</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9907540498101296</v>
+        <v>0.995448718331473</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3528,32 +3528,32 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>RUG321.fasta</t>
+          <t>RUG364.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.220366823216219e-14</v>
+        <v>6.141936330648378e-06</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9996118317385139</v>
+        <v>0.9983118032153552</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0003881682519740283</v>
+        <v>0.001677697332910937</v>
       </c>
       <c r="E76" t="n">
-        <v>2.220366823216219e-14</v>
+        <v>2.224314182808741e-14</v>
       </c>
       <c r="F76" t="n">
-        <v>2.220366823216219e-14</v>
+        <v>3.502675733940125e-09</v>
       </c>
       <c r="G76" t="n">
-        <v>9.423136133367394e-12</v>
+        <v>4.345815847147828e-06</v>
       </c>
       <c r="H76" t="n">
-        <v>2.220366823216219e-14</v>
+        <v>8.196858139368134e-09</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9996118317385139</v>
+        <v>0.9983118032153552</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3569,32 +3569,32 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>RUG327.fasta</t>
+          <t>RUG365.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.220445108472687e-14</v>
+        <v>2.220464782560861e-14</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9999924209877431</v>
+        <v>0.999995332516199</v>
       </c>
       <c r="D77" t="n">
-        <v>7.563343799675899e-06</v>
+        <v>4.667443980305542e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>2.220445108472687e-14</v>
+        <v>2.220464782560861e-14</v>
       </c>
       <c r="F77" t="n">
-        <v>2.220445108472687e-14</v>
+        <v>2.368216034635829e-11</v>
       </c>
       <c r="G77" t="n">
-        <v>1.073766744545379e-08</v>
+        <v>1.607193687993075e-11</v>
       </c>
       <c r="H77" t="n">
-        <v>4.930723108587696e-09</v>
+        <v>2.220464782560881e-14</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9999924209877431</v>
+        <v>0.999995332516199</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3610,32 +3610,32 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>RUG332.fasta</t>
+          <t>RUG375.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.221813060383899e-14</v>
+        <v>2.221708029736963e-14</v>
       </c>
       <c r="C78" t="n">
-        <v>0.999653867381422</v>
+        <v>0.999321295255731</v>
       </c>
       <c r="D78" t="n">
-        <v>0.000346132618466919</v>
+        <v>0.0004870719850968978</v>
       </c>
       <c r="E78" t="n">
-        <v>2.221813060383899e-14</v>
+        <v>2.221708029736962e-14</v>
       </c>
       <c r="F78" t="n">
-        <v>2.221813060383899e-14</v>
+        <v>2.25904032582934e-13</v>
       </c>
       <c r="G78" t="n">
-        <v>2.221813060383899e-14</v>
+        <v>0.0001916303681732731</v>
       </c>
       <c r="H78" t="n">
-        <v>2.221813060383899e-14</v>
+        <v>2.390728532790253e-09</v>
       </c>
       <c r="I78" t="n">
-        <v>0.999653867381422</v>
+        <v>0.999321295255731</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3651,32 +3651,32 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>RUG335.fasta</t>
+          <t>RUG381.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4.022331215669234e-13</v>
+        <v>7.456600552535348e-10</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9999963952108298</v>
+        <v>0.9976782078613089</v>
       </c>
       <c r="D79" t="n">
-        <v>3.576830421595438e-06</v>
+        <v>0.002035526520044746</v>
       </c>
       <c r="E79" t="n">
-        <v>2.220445852216261e-14</v>
+        <v>2.223116941131168e-14</v>
       </c>
       <c r="F79" t="n">
-        <v>2.220445852216261e-14</v>
+        <v>3.272766535144959e-12</v>
       </c>
       <c r="G79" t="n">
-        <v>2.795827958442142e-08</v>
+        <v>0.0002862648696551545</v>
       </c>
       <c r="H79" t="n">
-        <v>2.220445852216261e-14</v>
+        <v>3.623322749740146e-14</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9999963952108298</v>
+        <v>0.9976782078613089</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3692,32 +3692,32 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>RUG341.fasta</t>
+          <t>RUG385.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.220489192163441e-14</v>
+        <v>2.220463483539667e-14</v>
       </c>
       <c r="C80" t="n">
-        <v>0.99999340379076</v>
+        <v>0.9999960957072385</v>
       </c>
       <c r="D80" t="n">
-        <v>6.596096333341351e-06</v>
+        <v>3.904246496111966e-06</v>
       </c>
       <c r="E80" t="n">
-        <v>2.220489192163441e-14</v>
+        <v>2.220463483539668e-14</v>
       </c>
       <c r="F80" t="n">
-        <v>1.128179038790478e-10</v>
+        <v>4.196161056530038e-11</v>
       </c>
       <c r="G80" t="n">
-        <v>2.220489192163453e-14</v>
+        <v>4.237151786670024e-12</v>
       </c>
       <c r="H80" t="n">
-        <v>2.220489192163445e-14</v>
+        <v>2.220463483539681e-14</v>
       </c>
       <c r="I80" t="n">
-        <v>0.99999340379076</v>
+        <v>0.9999960957072385</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3733,32 +3733,32 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>RUG342.fasta</t>
+          <t>RUG389.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.220443801572902e-14</v>
+        <v>1.069112933097625e-13</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9999543431286843</v>
+        <v>0.9949330377643235</v>
       </c>
       <c r="D81" t="n">
-        <v>4.56568712045505e-05</v>
+        <v>0.005066278983668489</v>
       </c>
       <c r="E81" t="n">
-        <v>2.220443801572902e-14</v>
+        <v>1.06911293309763e-13</v>
       </c>
       <c r="F81" t="n">
-        <v>2.220443801572902e-14</v>
+        <v>1.06911293309763e-13</v>
       </c>
       <c r="G81" t="n">
-        <v>2.245881624125303e-14</v>
+        <v>6.82130361772994e-07</v>
       </c>
       <c r="H81" t="n">
-        <v>2.220443801572902e-14</v>
+        <v>1.121325451235274e-09</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9999543431286843</v>
+        <v>0.9949330377643235</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3774,73 +3774,73 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>RUG343.fasta</t>
+          <t>RUG391.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.220010076607641e-14</v>
+        <v>2.220551391916636e-14</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09333725561352552</v>
+        <v>0.9999769344761381</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9066627443863634</v>
+        <v>2.287953636129377e-05</v>
       </c>
       <c r="E82" t="n">
-        <v>2.220010076607641e-14</v>
+        <v>2.220551391916636e-14</v>
       </c>
       <c r="F82" t="n">
-        <v>2.220010076607641e-14</v>
+        <v>2.220551391916636e-14</v>
       </c>
       <c r="G82" t="n">
-        <v>2.220010076607641e-14</v>
+        <v>1.859522228500533e-07</v>
       </c>
       <c r="H82" t="n">
-        <v>2.220010076607641e-14</v>
+        <v>3.521115772104634e-11</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9066627443863634</v>
+        <v>0.9999769344761381</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>RUG347.fasta</t>
+          <t>RUG393.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.220445088159742e-14</v>
+        <v>9.523040704531757e-10</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9999962689155111</v>
+        <v>0.9959752791585725</v>
       </c>
       <c r="D83" t="n">
-        <v>3.731084377922392e-06</v>
+        <v>0.004024638778922163</v>
       </c>
       <c r="E83" t="n">
-        <v>2.220445088159742e-14</v>
+        <v>2.219909544717159e-14</v>
       </c>
       <c r="F83" t="n">
-        <v>2.220445088159742e-14</v>
+        <v>2.219909544717159e-14</v>
       </c>
       <c r="G83" t="n">
-        <v>2.220445088159742e-14</v>
+        <v>8.111013452633273e-08</v>
       </c>
       <c r="H83" t="n">
-        <v>2.220445088159742e-14</v>
+        <v>2.219909544717159e-14</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9999962689155111</v>
+        <v>0.9959752791585725</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3856,32 +3856,32 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>RUG349.fasta</t>
+          <t>RUG399.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.219915769216721e-14</v>
+        <v>2.220445752012454e-14</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9848806095532729</v>
+        <v>0.9999986997272173</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01511485469889398</v>
+        <v>1.300272671559245e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>2.219915769216721e-14</v>
+        <v>2.220445752012454e-14</v>
       </c>
       <c r="F84" t="n">
-        <v>2.219915769216721e-14</v>
+        <v>2.220445752012454e-14</v>
       </c>
       <c r="G84" t="n">
-        <v>4.535747562011242e-06</v>
+        <v>2.220445752012454e-14</v>
       </c>
       <c r="H84" t="n">
-        <v>2.044013489637133e-13</v>
+        <v>2.220445752012454e-14</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9848806095532729</v>
+        <v>0.9999986997272173</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3897,32 +3897,32 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>RUG356.fasta</t>
+          <t>RUG402.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.861762168442226e-14</v>
+        <v>2.220445906039773e-14</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9972384766461609</v>
+        <v>0.9999988833706017</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002761157731532745</v>
+        <v>1.116629287256767e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>7.861762168442304e-14</v>
+        <v>2.220445906039773e-14</v>
       </c>
       <c r="F85" t="n">
-        <v>7.861762168442293e-14</v>
+        <v>2.220445906039773e-14</v>
       </c>
       <c r="G85" t="n">
-        <v>3.653420452427709e-07</v>
+        <v>2.220445906039773e-14</v>
       </c>
       <c r="H85" t="n">
-        <v>2.800252048287597e-10</v>
+        <v>2.220445906039773e-14</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9972384766461609</v>
+        <v>0.9999988833706017</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3938,32 +3938,32 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>RUG361.fasta</t>
+          <t>RUG426.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6.542792858825568e-13</v>
+        <v>2.220471378903072e-14</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9970914705751573</v>
+        <v>0.999995466457386</v>
       </c>
       <c r="D86" t="n">
-        <v>0.002907944869883871</v>
+        <v>4.533505247750278e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>2.225420796355681e-14</v>
+        <v>2.220471378903073e-14</v>
       </c>
       <c r="F86" t="n">
-        <v>1.374501306270055e-11</v>
+        <v>3.631618996847571e-11</v>
       </c>
       <c r="G86" t="n">
-        <v>5.845379678886765e-07</v>
+        <v>9.83403221683604e-13</v>
       </c>
       <c r="H86" t="n">
-        <v>2.569491513665481e-12</v>
+        <v>2.220471378903086e-14</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9970914705751573</v>
+        <v>0.999995466457386</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3979,32 +3979,32 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>RUG364.fasta</t>
+          <t>RUG427.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.21813870425907e-05</v>
+        <v>2.222526733253189e-14</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9971557944439303</v>
+        <v>0.999350741106541</v>
       </c>
       <c r="D87" t="n">
-        <v>0.002746066630630477</v>
+        <v>0.0006492588856152969</v>
       </c>
       <c r="E87" t="n">
-        <v>5.665694012791361e-14</v>
+        <v>2.222526733253189e-14</v>
       </c>
       <c r="F87" t="n">
-        <v>2.527884313181427e-08</v>
+        <v>2.222526733253189e-14</v>
       </c>
       <c r="G87" t="n">
-        <v>5.589458777041572e-05</v>
+        <v>2.222526733253189e-14</v>
       </c>
       <c r="H87" t="n">
-        <v>3.767172627868431e-08</v>
+        <v>7.754871669150139e-12</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9971557944439303</v>
+        <v>0.999350741106541</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4020,32 +4020,32 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>RUG365.fasta</t>
+          <t>RUG448.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.220480918635386e-14</v>
+        <v>2.219942286282394e-14</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9999885171278059</v>
+        <v>0.9722561398459122</v>
       </c>
       <c r="D88" t="n">
-        <v>1.148283498413158e-05</v>
+        <v>0.02774385726048405</v>
       </c>
       <c r="E88" t="n">
-        <v>2.220480918635386e-14</v>
+        <v>2.219942286282394e-14</v>
       </c>
       <c r="F88" t="n">
-        <v>1.91882250638562e-11</v>
+        <v>2.219942286282394e-14</v>
       </c>
       <c r="G88" t="n">
-        <v>1.795510218989783e-11</v>
+        <v>2.8933283571062e-09</v>
       </c>
       <c r="H88" t="n">
-        <v>2.220480918635391e-14</v>
+        <v>2.088026005198089e-13</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9999885171278059</v>
+        <v>0.9722561398459122</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4061,32 +4061,32 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>RUG370.fasta</t>
+          <t>RUG460.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3.064367841636753e-14</v>
+        <v>1.268046123348693e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9930341900064096</v>
+        <v>0.9971634740620418</v>
       </c>
       <c r="D89" t="n">
-        <v>0.006965809993410419</v>
+        <v>0.002821700780166613</v>
       </c>
       <c r="E89" t="n">
-        <v>3.06436784163676e-14</v>
+        <v>2.222914245790761e-14</v>
       </c>
       <c r="F89" t="n">
-        <v>3.064367841638037e-14</v>
+        <v>1.174303345651751e-09</v>
       </c>
       <c r="G89" t="n">
-        <v>3.064367841640319e-14</v>
+        <v>2.133716151113526e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>5.742262817788053e-14</v>
+        <v>9.806081383963052e-09</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9930341900064096</v>
+        <v>0.9971634740620418</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4102,32 +4102,32 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>RUG375.fasta</t>
+          <t>RUG467.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.220713907984036e-14</v>
+        <v>2.220435803482184e-14</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9992542643256762</v>
+        <v>0.9999394975343886</v>
       </c>
       <c r="D90" t="n">
-        <v>0.000714541724892572</v>
+        <v>6.050246550031316e-05</v>
       </c>
       <c r="E90" t="n">
-        <v>2.220713907984035e-14</v>
+        <v>2.220435803482184e-14</v>
       </c>
       <c r="F90" t="n">
-        <v>1.905155268630959e-12</v>
+        <v>2.220435803482184e-14</v>
       </c>
       <c r="G90" t="n">
-        <v>3.119192569535927e-05</v>
+        <v>2.220435803482184e-14</v>
       </c>
       <c r="H90" t="n">
-        <v>2.021786270755792e-09</v>
+        <v>2.220435803482184e-14</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9992542643256762</v>
+        <v>0.9999394975343886</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4143,32 +4143,32 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>RUG381.fasta</t>
+          <t>RUG468.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.684233220385977e-10</v>
+        <v>2.220464533183106e-14</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9986376296186333</v>
+        <v>0.9999959411065225</v>
       </c>
       <c r="D91" t="n">
-        <v>0.001335805805891844</v>
+        <v>4.058848146079831e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>2.223202936349533e-14</v>
+        <v>2.220464533183106e-14</v>
       </c>
       <c r="F91" t="n">
-        <v>3.622972779808602e-11</v>
+        <v>4.279794296424733e-11</v>
       </c>
       <c r="G91" t="n">
-        <v>2.656407077728668e-05</v>
+        <v>2.467045058357837e-12</v>
       </c>
       <c r="H91" t="n">
-        <v>2.223202936349542e-14</v>
+        <v>2.22046453318312e-14</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9986376296186333</v>
+        <v>0.9999959411065225</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4184,32 +4184,32 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>RUG385.fasta</t>
+          <t>RUG475.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2.220464054353189e-14</v>
+        <v>2.249391800247882e-09</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9999942370252444</v>
+        <v>0.9846656700571786</v>
       </c>
       <c r="D92" t="n">
-        <v>5.762903461519512e-06</v>
+        <v>0.01533428151967375</v>
       </c>
       <c r="E92" t="n">
-        <v>2.220464054353189e-14</v>
+        <v>2.219921821750444e-14</v>
       </c>
       <c r="F92" t="n">
-        <v>7.117701989513087e-11</v>
+        <v>2.219921821750444e-14</v>
       </c>
       <c r="G92" t="n">
-        <v>5.045889636394971e-14</v>
+        <v>4.617366880272948e-08</v>
       </c>
       <c r="H92" t="n">
-        <v>2.220464054353192e-14</v>
+        <v>4.269533196263425e-14</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9999942370252444</v>
+        <v>0.9846656700571786</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4225,32 +4225,32 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>RUG389.fasta</t>
+          <t>RUG477.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>6.971050114689223e-14</v>
+        <v>2.221117804805948e-14</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9972973056272093</v>
+        <v>0.9998268788014445</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002702539827329392</v>
+        <v>0.0001710150639362464</v>
       </c>
       <c r="E93" t="n">
-        <v>6.971050114689323e-14</v>
+        <v>2.221117804805948e-14</v>
       </c>
       <c r="F93" t="n">
-        <v>6.971050114689321e-14</v>
+        <v>2.221117804805948e-14</v>
       </c>
       <c r="G93" t="n">
-        <v>1.544401797883282e-07</v>
+        <v>2.106133777626669e-06</v>
       </c>
       <c r="H93" t="n">
-        <v>1.050723647305525e-10</v>
+        <v>7.750643926087665e-13</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9972973056272093</v>
+        <v>0.9998268788014445</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4266,32 +4266,32 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>RUG391.fasta</t>
+          <t>RUG493.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2.220548127640475e-14</v>
+        <v>2.925308778437352e-14</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9999727351623214</v>
+        <v>0.9947298778861362</v>
       </c>
       <c r="D94" t="n">
-        <v>2.696476249215053e-05</v>
+        <v>0.00526564043254163</v>
       </c>
       <c r="E94" t="n">
-        <v>2.220548127640475e-14</v>
+        <v>2.925308778437378e-14</v>
       </c>
       <c r="F94" t="n">
-        <v>2.220548127640475e-14</v>
+        <v>2.925308778437376e-14</v>
       </c>
       <c r="G94" t="n">
-        <v>3.000710606780362e-07</v>
+        <v>4.481655980593369e-06</v>
       </c>
       <c r="H94" t="n">
-        <v>4.059118127225452e-12</v>
+        <v>2.525396058801048e-11</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9999727351623214</v>
+        <v>0.9947298778861362</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4307,32 +4307,32 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>RUG393.fasta</t>
+          <t>RUG495.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.437841358660487e-10</v>
+        <v>3.463724703142987e-08</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9978124439610909</v>
+        <v>0.9927114141527067</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002187448958205027</v>
+        <v>0.007288499555006187</v>
       </c>
       <c r="E95" t="n">
-        <v>2.21990719811255e-14</v>
+        <v>2.219914033562991e-14</v>
       </c>
       <c r="F95" t="n">
-        <v>2.21990719811255e-14</v>
+        <v>1.516617288408026e-08</v>
       </c>
       <c r="G95" t="n">
-        <v>1.069368531597777e-07</v>
+        <v>3.648882256855102e-08</v>
       </c>
       <c r="H95" t="n">
-        <v>2.21990719811255e-14</v>
+        <v>2.219914033562991e-14</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9978124439610909</v>
+        <v>0.9927114141527067</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4348,32 +4348,32 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>RUG402.fasta</t>
+          <t>RUG498.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.220445971182331e-14</v>
+        <v>3.350671311826007e-14</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9999994710400381</v>
+        <v>0.993603134891287</v>
       </c>
       <c r="D96" t="n">
-        <v>5.289598510674094e-07</v>
+        <v>0.006396865108545339</v>
       </c>
       <c r="E96" t="n">
-        <v>2.220445971182331e-14</v>
+        <v>3.350671311826012e-14</v>
       </c>
       <c r="F96" t="n">
-        <v>2.220445971182331e-14</v>
+        <v>3.350671311826025e-14</v>
       </c>
       <c r="G96" t="n">
-        <v>2.220445971182331e-14</v>
+        <v>3.350671311826024e-14</v>
       </c>
       <c r="H96" t="n">
-        <v>2.220445971182331e-14</v>
+        <v>3.350671311826019e-14</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9999994710400381</v>
+        <v>0.993603134891287</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4389,32 +4389,32 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>RUG426.fasta</t>
+          <t>RUG501.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.220459118024901e-14</v>
+        <v>2.220269258164301e-14</v>
       </c>
       <c r="C97" t="n">
-        <v>0.999997770050105</v>
+        <v>0.6701044248331384</v>
       </c>
       <c r="D97" t="n">
-        <v>2.229894680834219e-06</v>
+        <v>0.3298955470007433</v>
       </c>
       <c r="E97" t="n">
-        <v>2.220459118024901e-14</v>
+        <v>2.220269258164301e-14</v>
       </c>
       <c r="F97" t="n">
-        <v>5.511978579662759e-11</v>
+        <v>2.220269258164301e-14</v>
       </c>
       <c r="G97" t="n">
-        <v>2.761966569020757e-14</v>
+        <v>2.816547208692326e-08</v>
       </c>
       <c r="H97" t="n">
-        <v>2.220459118024907e-14</v>
+        <v>5.794778160193425e-13</v>
       </c>
       <c r="I97" t="n">
-        <v>0.999997770050105</v>
+        <v>0.6701044248331384</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4423,39 +4423,39 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>RUG427.fasta</t>
+          <t>RUG509.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2.221361759955145e-14</v>
+        <v>2.220464528546051e-14</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9993552129613954</v>
+        <v>0.9999963397208544</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0006447870361549513</v>
+        <v>3.660213091074468e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>2.221361759955145e-14</v>
+        <v>2.220464528546051e-14</v>
       </c>
       <c r="F98" t="n">
-        <v>2.221361759955145e-14</v>
+        <v>6.557713200130284e-11</v>
       </c>
       <c r="G98" t="n">
-        <v>2.221361759955145e-14</v>
+        <v>4.106960995041589e-13</v>
       </c>
       <c r="H98" t="n">
-        <v>2.360785548491227e-12</v>
+        <v>2.22046452854606e-14</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9993552129613954</v>
+        <v>0.9999963397208544</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4471,32 +4471,32 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>RUG428.fasta</t>
+          <t>RUG511.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5.914281418421931e-12</v>
+        <v>4.236867321128881e-14</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9987270627329994</v>
+        <v>0.9929053316953905</v>
       </c>
       <c r="D99" t="n">
-        <v>0.001272922872555091</v>
+        <v>0.007094668303987582</v>
       </c>
       <c r="E99" t="n">
-        <v>2.220395933394224e-14</v>
+        <v>4.236867321128899e-14</v>
       </c>
       <c r="F99" t="n">
-        <v>2.220395933394224e-14</v>
+        <v>4.236867321128888e-14</v>
       </c>
       <c r="G99" t="n">
-        <v>1.438846480795174e-08</v>
+        <v>1.472180483892479e-13</v>
       </c>
       <c r="H99" t="n">
-        <v>2.220395933394224e-14</v>
+        <v>3.474808233383654e-13</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9987270627329994</v>
+        <v>0.9929053316953905</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4512,32 +4512,32 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>RUG436.fasta</t>
+          <t>RUG512.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.816239002889666e-12</v>
+        <v>9.826291243476937e-14</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9996196610786832</v>
+        <v>0.9956136242970827</v>
       </c>
       <c r="D100" t="n">
-        <v>0.000374640620408336</v>
+        <v>0.004385888981463806</v>
       </c>
       <c r="E100" t="n">
-        <v>2.22039448823905e-14</v>
+        <v>9.826291243477051e-14</v>
       </c>
       <c r="F100" t="n">
-        <v>2.22039448823905e-14</v>
+        <v>9.826291243477011e-14</v>
       </c>
       <c r="G100" t="n">
-        <v>5.698290654256899e-06</v>
+        <v>4.855189578502731e-07</v>
       </c>
       <c r="H100" t="n">
-        <v>7.393381205727221e-12</v>
+        <v>1.202200822080432e-09</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9996196610786832</v>
+        <v>0.9956136242970827</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4553,32 +4553,32 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>RUG449.fasta</t>
+          <t>RUG542.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.216272256540788e-14</v>
+        <v>8.426712576705713e-13</v>
       </c>
       <c r="C101" t="n">
-        <v>0.993276178392048</v>
+        <v>0.9999168524429585</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00672382160773091</v>
+        <v>8.14299695015016e-05</v>
       </c>
       <c r="E101" t="n">
-        <v>3.216272256540796e-14</v>
+        <v>2.220631883313862e-14</v>
       </c>
       <c r="F101" t="n">
-        <v>3.216272256541972e-14</v>
+        <v>1.71758663079951e-06</v>
       </c>
       <c r="G101" t="n">
-        <v>5.999952559416395e-14</v>
+        <v>2.220631883313863e-14</v>
       </c>
       <c r="H101" t="n">
-        <v>6.468425503730072e-14</v>
+        <v>2.220631883313863e-14</v>
       </c>
       <c r="I101" t="n">
-        <v>0.993276178392048</v>
+        <v>0.9999168524429585</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4594,32 +4594,32 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>RUG458.fasta</t>
+          <t>RUG543.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2.220307667387019e-14</v>
+        <v>2.220463485145508e-14</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9979958473002098</v>
+        <v>0.999996252991313</v>
       </c>
       <c r="D102" t="n">
-        <v>0.002001944394486665</v>
+        <v>3.746964261271496e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>2.220307667387019e-14</v>
+        <v>2.220463485145508e-14</v>
       </c>
       <c r="F102" t="n">
-        <v>2.220307667387019e-14</v>
+        <v>4.109137282742747e-11</v>
       </c>
       <c r="G102" t="n">
-        <v>2.208209518323253e-06</v>
+        <v>3.267682292799421e-12</v>
       </c>
       <c r="H102" t="n">
-        <v>9.57185157737819e-11</v>
+        <v>2.220463485145521e-14</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9979958473002098</v>
+        <v>0.999996252991313</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4635,32 +4635,32 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>RUG460.fasta</t>
+          <t>RUG565.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>8.010064313057745e-07</v>
+        <v>3.584630650823609e-14</v>
       </c>
       <c r="C103" t="n">
-        <v>0.999182115990186</v>
+        <v>0.9993137252291043</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0008166076195339198</v>
+        <v>0.0006480841382680477</v>
       </c>
       <c r="E103" t="n">
-        <v>2.220421891091056e-14</v>
+        <v>3.584630650823635e-14</v>
       </c>
       <c r="F103" t="n">
-        <v>1.962868884600816e-09</v>
+        <v>2.759194948137193e-12</v>
       </c>
       <c r="G103" t="n">
-        <v>4.600782724476921e-07</v>
+        <v>3.819060629547658e-05</v>
       </c>
       <c r="H103" t="n">
-        <v>1.334268519291063e-08</v>
+        <v>2.350117960408531e-11</v>
       </c>
       <c r="I103" t="n">
-        <v>0.999182115990186</v>
+        <v>0.9993137252291043</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -4676,32 +4676,32 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>RUG467.fasta</t>
+          <t>RUG573.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2.220434670769349e-14</v>
+        <v>5.247060527064715e-13</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9999178009709297</v>
+        <v>0.9999980163087155</v>
       </c>
       <c r="D104" t="n">
-        <v>8.219902895910831e-05</v>
+        <v>1.983607190641388e-06</v>
       </c>
       <c r="E104" t="n">
-        <v>2.220434670769349e-14</v>
+        <v>2.220445421182276e-14</v>
       </c>
       <c r="F104" t="n">
-        <v>2.220434670769349e-14</v>
+        <v>7.765661323563622e-11</v>
       </c>
       <c r="G104" t="n">
-        <v>2.220434670769349e-14</v>
+        <v>5.868098115836109e-12</v>
       </c>
       <c r="H104" t="n">
-        <v>2.220434670769349e-14</v>
+        <v>2.220445421182276e-14</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9999178009709297</v>
+        <v>0.9999980163087155</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4717,32 +4717,32 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>RUG468.fasta</t>
+          <t>RUG576.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.220470824984521e-14</v>
+        <v>2.21991341892202e-14</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9999944286668694</v>
+        <v>0.9931142600323644</v>
       </c>
       <c r="D105" t="n">
-        <v>5.571275002732638e-06</v>
+        <v>0.006883545847001682</v>
       </c>
       <c r="E105" t="n">
-        <v>2.220470824984521e-14</v>
+        <v>2.21991341892202e-14</v>
       </c>
       <c r="F105" t="n">
-        <v>5.756063178274325e-11</v>
+        <v>2.21991341892202e-14</v>
       </c>
       <c r="G105" t="n">
-        <v>5.007060283711506e-13</v>
+        <v>2.194120545306294e-06</v>
       </c>
       <c r="H105" t="n">
-        <v>2.220470824984527e-14</v>
+        <v>2.21991341892202e-14</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9999944286668694</v>
+        <v>0.9931142600323644</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4758,32 +4758,32 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>RUG475.fasta</t>
+          <t>RUG580.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6.882662267826209e-10</v>
+        <v>4.307790582194914e-14</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9872810736673118</v>
+        <v>0.9899041990789643</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01271888554025411</v>
+        <v>0.01009580091674141</v>
       </c>
       <c r="E106" t="n">
-        <v>2.219920633818657e-14</v>
+        <v>4.307790582194917e-14</v>
       </c>
       <c r="F106" t="n">
-        <v>5.982402244855222e-14</v>
+        <v>4.307790582194909e-14</v>
       </c>
       <c r="G106" t="n">
-        <v>4.010406383107523e-08</v>
+        <v>3.39256224628047e-12</v>
       </c>
       <c r="H106" t="n">
-        <v>2.219920633818657e-14</v>
+        <v>7.724904305219618e-13</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9872810736673118</v>
+        <v>0.9899041990789643</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4799,73 +4799,73 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>RUG477.fasta</t>
+          <t>RUG585.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2.220902016944463e-14</v>
+        <v>1.414396639164594e-13</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9999526361020641</v>
+        <v>0.1234403105811551</v>
       </c>
       <c r="D107" t="n">
-        <v>4.736383507724816e-05</v>
+        <v>0.8765596894181377</v>
       </c>
       <c r="E107" t="n">
-        <v>2.220902016944463e-14</v>
+        <v>1.414396639164593e-13</v>
       </c>
       <c r="F107" t="n">
-        <v>2.220902016944463e-14</v>
+        <v>1.414396639164594e-13</v>
       </c>
       <c r="G107" t="n">
-        <v>6.276987961579381e-11</v>
+        <v>1.414396639165007e-13</v>
       </c>
       <c r="H107" t="n">
-        <v>2.220902016944477e-14</v>
+        <v>1.414396639164613e-13</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9999526361020641</v>
+        <v>0.8765596894181377</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia_A</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia_A</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>RUG479.fasta</t>
+          <t>RUG588.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.001509274764914515</v>
+        <v>2.221347856704196e-14</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9886206477459838</v>
+        <v>0.9998687338220362</v>
       </c>
       <c r="D108" t="n">
-        <v>0.009489846506308864</v>
+        <v>0.0001312661670893162</v>
       </c>
       <c r="E108" t="n">
-        <v>8.128459603505086e-14</v>
+        <v>2.221347856704196e-14</v>
       </c>
       <c r="F108" t="n">
-        <v>1.588640339962138e-05</v>
+        <v>2.221347856704196e-14</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0003642203728586059</v>
+        <v>1.078561215593151e-11</v>
       </c>
       <c r="H108" t="n">
-        <v>1.242064532421144e-07</v>
+        <v>2.221347856704196e-14</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9886206477459838</v>
+        <v>0.9998687338220362</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4881,32 +4881,32 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>RUG492.fasta</t>
+          <t>RUG592.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2.224280540974663e-14</v>
+        <v>4.98160927731814e-13</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9998330996978372</v>
+        <v>0.9988978540967496</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0001668045713835773</v>
+        <v>0.00110214307038986</v>
       </c>
       <c r="E109" t="n">
-        <v>2.224280540974663e-14</v>
+        <v>2.2200989440377e-14</v>
       </c>
       <c r="F109" t="n">
-        <v>2.224280540974663e-14</v>
+        <v>1.51677956836674e-13</v>
       </c>
       <c r="G109" t="n">
-        <v>9.572955054542723e-08</v>
+        <v>3.701470926924149e-10</v>
       </c>
       <c r="H109" t="n">
-        <v>1.16208650255933e-12</v>
+        <v>2.462041621519078e-09</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9998330996978372</v>
+        <v>0.9988978540967496</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4922,32 +4922,32 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>RUG493.fasta</t>
+          <t>RUG595.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.224550598262603e-14</v>
+        <v>8.998143987116275e-14</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9975745404234529</v>
+        <v>0.9953633472378361</v>
       </c>
       <c r="D110" t="n">
-        <v>0.002421892488831357</v>
+        <v>0.004636224506367188</v>
       </c>
       <c r="E110" t="n">
-        <v>2.224550598262603e-14</v>
+        <v>8.998143987116371e-14</v>
       </c>
       <c r="F110" t="n">
-        <v>2.224550598262603e-14</v>
+        <v>8.998143987116344e-14</v>
       </c>
       <c r="G110" t="n">
-        <v>3.567077610261572e-06</v>
+        <v>4.268118432795132e-07</v>
       </c>
       <c r="H110" t="n">
-        <v>1.003885327341416e-11</v>
+        <v>1.44368362379371e-09</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9975745404234529</v>
+        <v>0.9953633472378361</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4963,32 +4963,32 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>RUG495.fasta</t>
+          <t>RUG601.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1.207924518838088e-08</v>
+        <v>2.219946234847123e-14</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9903422871080915</v>
+        <v>0.9606370389419122</v>
       </c>
       <c r="D111" t="n">
-        <v>0.009657593816228632</v>
+        <v>0.03936296105797684</v>
       </c>
       <c r="E111" t="n">
-        <v>2.219916343201446e-14</v>
+        <v>2.219946234847123e-14</v>
       </c>
       <c r="F111" t="n">
-        <v>7.813018572798109e-09</v>
+        <v>2.219946234847123e-14</v>
       </c>
       <c r="G111" t="n">
-        <v>9.918337159530267e-08</v>
+        <v>2.219946234847123e-14</v>
       </c>
       <c r="H111" t="n">
-        <v>2.219916343201446e-14</v>
+        <v>2.219946234847123e-14</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9903422871080915</v>
+        <v>0.9606370389419122</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -5004,32 +5004,32 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>RUG498.fasta</t>
+          <t>RUG604.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2.894359494401819e-14</v>
+        <v>3.515045920340042e-06</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9969547427875827</v>
+        <v>0.9986485196255841</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003045257211904145</v>
+        <v>0.001342211261754957</v>
       </c>
       <c r="E112" t="n">
-        <v>2.894359494401822e-14</v>
+        <v>2.223889255603187e-14</v>
       </c>
       <c r="F112" t="n">
-        <v>3.971983996280571e-13</v>
+        <v>4.164061560966588e-09</v>
       </c>
       <c r="G112" t="n">
-        <v>2.894359494401843e-14</v>
+        <v>5.742088845310555e-06</v>
       </c>
       <c r="H112" t="n">
-        <v>2.894359494401833e-14</v>
+        <v>7.813811470012659e-09</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9969547427875827</v>
+        <v>0.9986485196255841</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5045,32 +5045,32 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>RUG501.fasta</t>
+          <t>RUG608.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.220434265458067e-14</v>
+        <v>2.220402293660376e-14</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5114371933355376</v>
+        <v>0.9995123837409902</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4885627234492756</v>
+        <v>0.0004876162588989619</v>
       </c>
       <c r="E113" t="n">
-        <v>2.220434265458067e-14</v>
+        <v>2.220402293660376e-14</v>
       </c>
       <c r="F113" t="n">
-        <v>2.220434265458067e-14</v>
+        <v>2.220402293660376e-14</v>
       </c>
       <c r="G113" t="n">
-        <v>8.321494611218772e-08</v>
+        <v>2.220402293660376e-14</v>
       </c>
       <c r="H113" t="n">
-        <v>1.740700244809977e-13</v>
+        <v>2.220402293660376e-14</v>
       </c>
       <c r="I113" t="n">
-        <v>0.5114371933355376</v>
+        <v>0.9995123837409902</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5079,39 +5079,39 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>c__Clostridia(reject)</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>RUG502.fasta</t>
+          <t>RUG609.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3.148340705860787e-14</v>
+        <v>2.220442188430527e-14</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9882142474205993</v>
+        <v>0.9999819316955425</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01178575250179682</v>
+        <v>1.806830434636421e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>3.148340705860785e-14</v>
+        <v>2.220442188430527e-14</v>
       </c>
       <c r="F114" t="n">
-        <v>7.747783491728691e-11</v>
+        <v>2.220442188430527e-14</v>
       </c>
       <c r="G114" t="n">
-        <v>3.1483407058608e-14</v>
+        <v>2.220442188430527e-14</v>
       </c>
       <c r="H114" t="n">
-        <v>3.148340705860795e-14</v>
+        <v>2.220442188430527e-14</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9882142474205993</v>
+        <v>0.9999819316955425</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5127,32 +5127,32 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>RUG509.fasta</t>
+          <t>RUG611.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.220468640320532e-14</v>
+        <v>2.220445865643256e-14</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9999921271020198</v>
+        <v>0.9999968925315806</v>
       </c>
       <c r="D115" t="n">
-        <v>7.872797167692021e-06</v>
+        <v>3.107468308371336e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>2.220468640320532e-14</v>
+        <v>2.220445865643256e-14</v>
       </c>
       <c r="F115" t="n">
-        <v>1.006898630611724e-10</v>
+        <v>2.220445865643256e-14</v>
       </c>
       <c r="G115" t="n">
-        <v>5.592483843776153e-14</v>
+        <v>2.220445865643256e-14</v>
       </c>
       <c r="H115" t="n">
-        <v>2.220468640320533e-14</v>
+        <v>2.220445865643256e-14</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9999921271020198</v>
+        <v>0.9999968925315806</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -5168,32 +5168,32 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>RUG511.fasta</t>
+          <t>RUG621.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4.312032368965724e-14</v>
+        <v>2.220421255627883e-14</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9796035000599161</v>
+        <v>0.9998101718298694</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02039649993973479</v>
+        <v>0.0001893437372444759</v>
       </c>
       <c r="E116" t="n">
-        <v>4.312032368965731e-14</v>
+        <v>2.220421255627883e-14</v>
       </c>
       <c r="F116" t="n">
-        <v>4.31203236896574e-14</v>
+        <v>2.220421255627883e-14</v>
       </c>
       <c r="G116" t="n">
-        <v>4.312032368965733e-14</v>
+        <v>4.458518076914649e-07</v>
       </c>
       <c r="H116" t="n">
-        <v>1.766535512082568e-13</v>
+        <v>3.858101184500339e-08</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9796035000599161</v>
+        <v>0.9998101718298694</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5209,32 +5209,32 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>RUG512.fasta</t>
+          <t>RUG623.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1.53424573559132e-13</v>
+        <v>4.771986675093816e-14</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9931975964660855</v>
+        <v>0.9924617973179138</v>
       </c>
       <c r="D117" t="n">
-        <v>0.006801003107749865</v>
+        <v>0.007538202681794345</v>
       </c>
       <c r="E117" t="n">
-        <v>1.534245735591325e-13</v>
+        <v>4.771986675093839e-14</v>
       </c>
       <c r="F117" t="n">
-        <v>1.534245735591325e-13</v>
+        <v>4.771986675093854e-14</v>
       </c>
       <c r="G117" t="n">
-        <v>1.397499159519098e-06</v>
+        <v>4.771986675094427e-14</v>
       </c>
       <c r="H117" t="n">
-        <v>2.926544659974411e-09</v>
+        <v>1.008619198589605e-13</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9931975964660855</v>
+        <v>0.9924617973179138</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5250,32 +5250,32 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>RUG518.fasta</t>
+          <t>RUG630.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4.351315599611841e-14</v>
+        <v>2.219906285827267e-14</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9978063259325942</v>
+        <v>0.9982684863428402</v>
       </c>
       <c r="D118" t="n">
-        <v>0.00219367406718817</v>
+        <v>0.001731513657048844</v>
       </c>
       <c r="E118" t="n">
-        <v>4.351315599611852e-14</v>
+        <v>2.219906285827267e-14</v>
       </c>
       <c r="F118" t="n">
-        <v>4.351315599611895e-14</v>
+        <v>2.219906285827267e-14</v>
       </c>
       <c r="G118" t="n">
-        <v>4.351315599611908e-14</v>
+        <v>2.219906285827267e-14</v>
       </c>
       <c r="H118" t="n">
-        <v>4.351315599611874e-14</v>
+        <v>2.219906285827267e-14</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9978063259325942</v>
+        <v>0.9982684863428402</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5291,32 +5291,32 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>RUG542.fasta</t>
+          <t>RUG637.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5.107265692500507e-14</v>
+        <v>2.220466575756454e-14</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9996768045747225</v>
+        <v>0.9999969008012981</v>
       </c>
       <c r="D119" t="n">
-        <v>0.00032319470555605</v>
+        <v>3.099133657174693e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>2.22064182218305e-14</v>
+        <v>2.220466575756454e-14</v>
       </c>
       <c r="F119" t="n">
-        <v>7.196037280631357e-10</v>
+        <v>6.489071716671801e-11</v>
       </c>
       <c r="G119" t="n">
-        <v>2.22064182218305e-14</v>
+        <v>8.736674711338488e-14</v>
       </c>
       <c r="H119" t="n">
-        <v>2.22064182218305e-14</v>
+        <v>2.220466575756465e-14</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9996768045747225</v>
+        <v>0.9999969008012981</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -5332,32 +5332,32 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>RUG543.fasta</t>
+          <t>RUG638.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2.220467060933413e-14</v>
+        <v>7.285250509637494e-06</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9999946963458521</v>
+        <v>0.9980576201127194</v>
       </c>
       <c r="D120" t="n">
-        <v>5.303524461969356e-06</v>
+        <v>0.001933505754430092</v>
       </c>
       <c r="E120" t="n">
-        <v>2.220467060933413e-14</v>
+        <v>2.220047981893843e-14</v>
       </c>
       <c r="F120" t="n">
-        <v>1.287717754827145e-10</v>
+        <v>7.698999521266171e-08</v>
       </c>
       <c r="G120" t="n">
-        <v>8.475292735749609e-13</v>
+        <v>1.511892301345904e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>2.220467060933417e-14</v>
+        <v>2.220047981893843e-14</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9999946963458521</v>
+        <v>0.9980576201127194</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5373,32 +5373,32 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>RUG565.fasta</t>
+          <t>RUG658.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2.22420132703231e-14</v>
+        <v>2.219908853571847e-14</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9996141935693053</v>
+        <v>0.9964953347953428</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0003759025511499754</v>
+        <v>0.003504665204546177</v>
       </c>
       <c r="E121" t="n">
-        <v>2.22420132703231e-14</v>
+        <v>2.219908853571847e-14</v>
       </c>
       <c r="F121" t="n">
-        <v>3.52746465474927e-13</v>
+        <v>2.219908853571847e-14</v>
       </c>
       <c r="G121" t="n">
-        <v>9.90384580196495e-06</v>
+        <v>2.219908853571847e-14</v>
       </c>
       <c r="H121" t="n">
-        <v>3.334557200834784e-11</v>
+        <v>2.219908853571847e-14</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9996141935693053</v>
+        <v>0.9964953347953428</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -5414,32 +5414,32 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>RUG573.fasta</t>
+          <t>RUG662.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>6.549992871467175e-13</v>
+        <v>1.224755020576579e-09</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9999969322157694</v>
+        <v>0.9953643629395582</v>
       </c>
       <c r="D122" t="n">
-        <v>3.067627104753956e-06</v>
+        <v>0.00463524939997008</v>
       </c>
       <c r="E122" t="n">
-        <v>2.220445078168877e-14</v>
+        <v>2.219910532980547e-14</v>
       </c>
       <c r="F122" t="n">
-        <v>1.483720942007385e-10</v>
+        <v>2.219910532980547e-14</v>
       </c>
       <c r="G122" t="n">
-        <v>8.054534006595231e-12</v>
+        <v>3.864356499388214e-07</v>
       </c>
       <c r="H122" t="n">
-        <v>2.220445078168877e-14</v>
+        <v>2.219910532980547e-14</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9999969322157694</v>
+        <v>0.9953643629395582</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5455,32 +5455,32 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>RUG576.fasta</t>
+          <t>RUG665.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2.219907315872769e-14</v>
+        <v>2.220463502555333e-14</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9975290188332852</v>
+        <v>0.9999935906225677</v>
       </c>
       <c r="D123" t="n">
-        <v>0.002470912223690157</v>
+        <v>6.409268958067754e-06</v>
       </c>
       <c r="E123" t="n">
-        <v>2.219907315872769e-14</v>
+        <v>2.220463502555333e-14</v>
       </c>
       <c r="F123" t="n">
-        <v>2.219907315872769e-14</v>
+        <v>1.691149302949911e-11</v>
       </c>
       <c r="G123" t="n">
-        <v>6.894293573309006e-08</v>
+        <v>9.149464234760628e-11</v>
       </c>
       <c r="H123" t="n">
-        <v>2.219907315872769e-14</v>
+        <v>2.365291521010038e-14</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9975290188332852</v>
+        <v>0.9999935906225677</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -5496,32 +5496,32 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>RUG580.fasta</t>
+          <t>RUG669.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2.414194600129774e-14</v>
+        <v>8.877429304036094e-09</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9858284243309859</v>
+        <v>0.9997381313078066</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01417157566884352</v>
+        <v>0.0002618541924279554</v>
       </c>
       <c r="E124" t="n">
-        <v>2.414194600129775e-14</v>
+        <v>2.220364734467707e-14</v>
       </c>
       <c r="F124" t="n">
-        <v>2.414194600129775e-14</v>
+        <v>7.972500760868145e-13</v>
       </c>
       <c r="G124" t="n">
-        <v>2.414194600129811e-14</v>
+        <v>5.62133401893653e-09</v>
       </c>
       <c r="H124" t="n">
-        <v>7.415521056037748e-14</v>
+        <v>1.825907216505357e-13</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9858284243309859</v>
+        <v>0.9997381313078066</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5537,32 +5537,32 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>RUG581.fasta</t>
+          <t>RUG670.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2.221985525262925e-14</v>
+        <v>4.785466570824893e-13</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9986234723441966</v>
+        <v>0.999999356449782</v>
       </c>
       <c r="D125" t="n">
-        <v>0.001376527648537467</v>
+        <v>6.229965059118795e-07</v>
       </c>
       <c r="E125" t="n">
-        <v>2.221985525262925e-14</v>
+        <v>2.220445848009856e-14</v>
       </c>
       <c r="F125" t="n">
-        <v>2.221985525262925e-14</v>
+        <v>1.760848280615675e-13</v>
       </c>
       <c r="G125" t="n">
-        <v>7.177170464870257e-12</v>
+        <v>1.985034654482578e-08</v>
       </c>
       <c r="H125" t="n">
-        <v>2.221985525262939e-14</v>
+        <v>7.026886242879965e-10</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9986234723441966</v>
+        <v>0.999999356449782</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -5578,73 +5578,73 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>RUG585.fasta</t>
+          <t>RUG672.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1.893765181213402e-13</v>
+        <v>2.220444780471894e-14</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1786251547523828</v>
+        <v>0.9999930588712548</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8213748452464676</v>
+        <v>5.92802524521513e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>1.893765181213402e-13</v>
+        <v>2.220444780471894e-14</v>
       </c>
       <c r="F126" t="n">
-        <v>1.893765181213402e-13</v>
+        <v>2.220444780471894e-14</v>
       </c>
       <c r="G126" t="n">
-        <v>3.92241943357098e-13</v>
+        <v>6.183237734259085e-07</v>
       </c>
       <c r="H126" t="n">
-        <v>1.893765181213403e-13</v>
+        <v>3.94779659880445e-07</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8213748452464676</v>
+        <v>0.9999930588712548</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>RUG588.fasta</t>
+          <t>RUG674.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.221255672442356e-14</v>
+        <v>2.807647891539368e-14</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9998418811252388</v>
+        <v>0.9834118806319692</v>
       </c>
       <c r="D127" t="n">
-        <v>0.000158118870043674</v>
+        <v>0.01658811936347382</v>
       </c>
       <c r="E127" t="n">
-        <v>2.221255672442356e-14</v>
+        <v>2.807647891539369e-14</v>
       </c>
       <c r="F127" t="n">
-        <v>2.221255672442356e-14</v>
+        <v>2.807647891539367e-14</v>
       </c>
       <c r="G127" t="n">
-        <v>4.628719844740477e-12</v>
+        <v>4.248925684860314e-12</v>
       </c>
       <c r="H127" t="n">
-        <v>2.221255672442356e-14</v>
+        <v>2.23794803543562e-13</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9998418811252388</v>
+        <v>0.9834118806319692</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -5660,32 +5660,32 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RUG592.fasta</t>
+          <t>RUG680.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2.224849691975958e-13</v>
+        <v>2.220446218726062e-14</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9988943532897594</v>
+        <v>0.999999925187484</v>
       </c>
       <c r="D128" t="n">
-        <v>0.001105639331185896</v>
+        <v>7.481240504229921e-08</v>
       </c>
       <c r="E128" t="n">
-        <v>2.220098557592898e-14</v>
+        <v>2.220446218726062e-14</v>
       </c>
       <c r="F128" t="n">
-        <v>1.61720345313469e-13</v>
+        <v>2.220446218726063e-14</v>
       </c>
       <c r="G128" t="n">
-        <v>1.32276897977061e-09</v>
+        <v>2.220446218726062e-14</v>
       </c>
       <c r="H128" t="n">
-        <v>6.055879587925157e-09</v>
+        <v>2.220446218726062e-14</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9988943532897594</v>
+        <v>0.999999925187484</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5701,32 +5701,32 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>RUG595.fasta</t>
+          <t>RUG681.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4.852275787204793e-14</v>
+        <v>1.256021524030054e-13</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9963538129257347</v>
+        <v>0.9940152778211504</v>
       </c>
       <c r="D129" t="n">
-        <v>0.003645683776134227</v>
+        <v>0.005984266728041403</v>
       </c>
       <c r="E129" t="n">
-        <v>4.852275787204835e-14</v>
+        <v>1.256021524030056e-13</v>
       </c>
       <c r="F129" t="n">
-        <v>4.852275787204818e-14</v>
+        <v>1.256021524030055e-13</v>
       </c>
       <c r="G129" t="n">
-        <v>5.026825419250937e-07</v>
+        <v>4.536284015650706e-07</v>
       </c>
       <c r="H129" t="n">
-        <v>6.154436168119353e-10</v>
+        <v>1.822029828854574e-09</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9963538129257347</v>
+        <v>0.9940152778211504</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -5742,32 +5742,32 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>RUG601.fasta</t>
+          <t>RUG686.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2.219921727945195e-14</v>
+        <v>2.220445777387089e-14</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9861978339865586</v>
+        <v>0.9999988898889747</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01380216601333044</v>
+        <v>1.110110914243082e-06</v>
       </c>
       <c r="E130" t="n">
-        <v>2.219921727945195e-14</v>
+        <v>2.220445777387089e-14</v>
       </c>
       <c r="F130" t="n">
-        <v>2.219921727945195e-14</v>
+        <v>2.220445777387089e-14</v>
       </c>
       <c r="G130" t="n">
-        <v>2.219921727945195e-14</v>
+        <v>2.220445777387089e-14</v>
       </c>
       <c r="H130" t="n">
-        <v>2.219921727945195e-14</v>
+        <v>2.220445777387089e-14</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9861978339865586</v>
+        <v>0.9999988898889747</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -5783,32 +5783,32 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>RUG604.fasta</t>
+          <t>RUG687.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6.943165217332821e-09</v>
+        <v>2.796246929388807e-14</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9998229301351421</v>
+        <v>0.9972728876441843</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0001761095839302553</v>
+        <v>0.002725672198525237</v>
       </c>
       <c r="E131" t="n">
-        <v>2.220438426248463e-14</v>
+        <v>2.796246929388822e-14</v>
       </c>
       <c r="F131" t="n">
-        <v>7.030639783653672e-09</v>
+        <v>2.796246929388819e-14</v>
       </c>
       <c r="G131" t="n">
-        <v>9.40812375802476e-07</v>
+        <v>1.44014573130332e-06</v>
       </c>
       <c r="H131" t="n">
-        <v>5.49472480796286e-09</v>
+        <v>1.147513791801031e-11</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9998229301351421</v>
+        <v>0.9972728876441843</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -5824,32 +5824,32 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>RUG608.fasta</t>
+          <t>RUG694.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2.220185142652989e-14</v>
+        <v>2.221654137616771e-14</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9975563951440649</v>
+        <v>0.9967285140617057</v>
       </c>
       <c r="D132" t="n">
-        <v>0.002443604855824034</v>
+        <v>0.003092656632342758</v>
       </c>
       <c r="E132" t="n">
-        <v>2.220185142652989e-14</v>
+        <v>2.221654137616768e-14</v>
       </c>
       <c r="F132" t="n">
-        <v>2.220185142652989e-14</v>
+        <v>2.221654137616768e-14</v>
       </c>
       <c r="G132" t="n">
-        <v>2.220185142652989e-14</v>
+        <v>0.0001788293058209505</v>
       </c>
       <c r="H132" t="n">
-        <v>2.220185142652989e-14</v>
+        <v>6.393133768926288e-14</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9975563951440649</v>
+        <v>0.9967285140617057</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -5865,32 +5865,32 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RUG609.fasta</t>
+          <t>RUG700.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2.220442845958907e-14</v>
+        <v>5.687717336402668e-14</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9999873193687462</v>
+        <v>0.9996856479658898</v>
       </c>
       <c r="D133" t="n">
-        <v>1.268063114291813e-05</v>
+        <v>0.0003111773439553617</v>
       </c>
       <c r="E133" t="n">
-        <v>2.220442845958907e-14</v>
+        <v>2.220412813399755e-14</v>
       </c>
       <c r="F133" t="n">
-        <v>2.220442845958907e-14</v>
+        <v>2.220412813399755e-14</v>
       </c>
       <c r="G133" t="n">
-        <v>2.220442845958907e-14</v>
+        <v>3.174649585916095e-06</v>
       </c>
       <c r="H133" t="n">
-        <v>2.220442845958907e-14</v>
+        <v>4.046791987925104e-11</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9999873193687462</v>
+        <v>0.9996856479658898</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -5906,32 +5906,32 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>RUG611.fasta</t>
+          <t>RUG704.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2.220445536571958e-14</v>
+        <v>4.199229531536559e-14</v>
       </c>
       <c r="C134" t="n">
-        <v>0.999996434558832</v>
+        <v>0.8908345207523765</v>
       </c>
       <c r="D134" t="n">
-        <v>3.565441057032768e-06</v>
+        <v>0.1091654792474136</v>
       </c>
       <c r="E134" t="n">
-        <v>2.220445536571958e-14</v>
+        <v>4.199229531536269e-14</v>
       </c>
       <c r="F134" t="n">
-        <v>2.220445536571958e-14</v>
+        <v>4.199229531536269e-14</v>
       </c>
       <c r="G134" t="n">
-        <v>2.220445536571958e-14</v>
+        <v>4.19922953153627e-14</v>
       </c>
       <c r="H134" t="n">
-        <v>2.220445536571958e-14</v>
+        <v>4.199229531536267e-14</v>
       </c>
       <c r="I134" t="n">
-        <v>0.999996434558832</v>
+        <v>0.8908345207523765</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -5947,32 +5947,32 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>RUG621.fasta</t>
+          <t>RUG708.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.220426901559715e-14</v>
+        <v>2.669767801848995e-12</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9998676900643537</v>
+        <v>0.99770588497338</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0001318908095575568</v>
+        <v>0.00229406051976863</v>
       </c>
       <c r="E135" t="n">
-        <v>2.220426901559715e-14</v>
+        <v>2.219907218939674e-14</v>
       </c>
       <c r="F135" t="n">
-        <v>2.220426901559715e-14</v>
+        <v>2.219907218939674e-14</v>
       </c>
       <c r="G135" t="n">
-        <v>3.719658943579418e-07</v>
+        <v>5.450405191934847e-08</v>
       </c>
       <c r="H135" t="n">
-        <v>4.716012763820313e-08</v>
+        <v>8.53010929252021e-14</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9998676900643537</v>
+        <v>0.99770588497338</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -5988,32 +5988,32 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>RUG623.fasta</t>
+          <t>RUG709.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2.772780090732971e-14</v>
+        <v>1.515013222713311e-08</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9846993868398937</v>
+        <v>0.9975618511873038</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01530061315887985</v>
+        <v>0.002438088430030906</v>
       </c>
       <c r="E136" t="n">
-        <v>2.772780090732978e-14</v>
+        <v>2.219907432691047e-14</v>
       </c>
       <c r="F136" t="n">
-        <v>2.77278009073298e-14</v>
+        <v>7.488683030638283e-13</v>
       </c>
       <c r="G136" t="n">
-        <v>2.772780090732978e-14</v>
+        <v>4.523173993098569e-08</v>
       </c>
       <c r="H136" t="n">
-        <v>1.115406419652648e-12</v>
+        <v>2.219907432691047e-14</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9846993868398937</v>
+        <v>0.9975618511873038</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6029,32 +6029,32 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>RUG630.fasta</t>
+          <t>RUG710.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4.894031382907488e-14</v>
+        <v>2.220432720498568e-14</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9980523887298941</v>
+        <v>0.9995522717256173</v>
       </c>
       <c r="D137" t="n">
-        <v>0.001947611269968222</v>
+        <v>0.0001390708843501344</v>
       </c>
       <c r="E137" t="n">
-        <v>2.21990682304449e-14</v>
+        <v>2.220432720498568e-14</v>
       </c>
       <c r="F137" t="n">
-        <v>2.21990682304449e-14</v>
+        <v>3.220774797149763e-14</v>
       </c>
       <c r="G137" t="n">
-        <v>2.21990682304449e-14</v>
+        <v>0.0003086564575507842</v>
       </c>
       <c r="H137" t="n">
-        <v>2.21990682304449e-14</v>
+        <v>9.324052172746327e-10</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9980523887298941</v>
+        <v>0.9995522717256173</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6070,32 +6070,32 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RUG637.fasta</t>
+          <t>RUG724.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.220463302428977e-14</v>
+        <v>5.099670276819792e-11</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9999973713212446</v>
+        <v>0.9999843082754694</v>
       </c>
       <c r="D138" t="n">
-        <v>2.628537440745372e-06</v>
+        <v>1.567996721792366e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>2.220463302428977e-14</v>
+        <v>2.220442436171774e-14</v>
       </c>
       <c r="F138" t="n">
-        <v>1.412259123060957e-10</v>
+        <v>1.16648813757937e-08</v>
       </c>
       <c r="G138" t="n">
-        <v>2.220463302428993e-14</v>
+        <v>4.139008859171324e-11</v>
       </c>
       <c r="H138" t="n">
-        <v>2.220463302428982e-14</v>
+        <v>2.220442436171774e-14</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9999973713212446</v>
+        <v>0.9999843082754694</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -6111,32 +6111,32 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>RUG638.fasta</t>
+          <t>RUG728.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2.112550724609154e-06</v>
+        <v>2.220527681101802e-14</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9982592770438766</v>
+        <v>0.9999895373520328</v>
       </c>
       <c r="D139" t="n">
-        <v>0.001736648539377949</v>
+        <v>8.08614793328684e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>2.220160597397283e-14</v>
+        <v>2.220527681101802e-14</v>
       </c>
       <c r="F139" t="n">
-        <v>1.161428111069728e-07</v>
+        <v>2.220527681101802e-14</v>
       </c>
       <c r="G139" t="n">
-        <v>1.845723164737894e-06</v>
+        <v>2.376499789226137e-06</v>
       </c>
       <c r="H139" t="n">
-        <v>2.271206334611738e-14</v>
+        <v>1.780386195896629e-13</v>
       </c>
       <c r="I139" t="n">
-        <v>0.9982592770438766</v>
+        <v>0.9999895373520328</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -6152,32 +6152,32 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>RUG653.fasta</t>
+          <t>RUG731.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.321707195409504e-14</v>
+        <v>2.22044573263502e-14</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5180889929994491</v>
+        <v>0.999998684955655</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4819110069987439</v>
+        <v>1.315044233885549e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>2.321707195409504e-14</v>
+        <v>2.22044573263502e-14</v>
       </c>
       <c r="F140" t="n">
-        <v>2.321707195409504e-14</v>
+        <v>2.22044573263502e-14</v>
       </c>
       <c r="G140" t="n">
-        <v>1.673002474765834e-12</v>
+        <v>2.22044573263502e-14</v>
       </c>
       <c r="H140" t="n">
-        <v>6.431311049720848e-14</v>
+        <v>2.22044573263502e-14</v>
       </c>
       <c r="I140" t="n">
-        <v>0.5180889929994491</v>
+        <v>0.999998684955655</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -6186,39 +6186,39 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>c__Clostridia(reject)</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>RUG658.fasta</t>
+          <t>RUG735.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2.219909717344487e-14</v>
+        <v>2.220430527213466e-14</v>
       </c>
       <c r="C141" t="n">
-        <v>0.995422325972429</v>
+        <v>0.9999495907206392</v>
       </c>
       <c r="D141" t="n">
-        <v>0.004577674027460006</v>
+        <v>2.075829288803746e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>2.219909717344487e-14</v>
+        <v>2.220430527213466e-14</v>
       </c>
       <c r="F141" t="n">
-        <v>2.219909717344487e-14</v>
+        <v>2.502061261612573e-10</v>
       </c>
       <c r="G141" t="n">
-        <v>2.219909717344487e-14</v>
+        <v>4.833319971194952e-05</v>
       </c>
       <c r="H141" t="n">
-        <v>2.219909717344487e-14</v>
+        <v>1.095670372503085e-13</v>
       </c>
       <c r="I141" t="n">
-        <v>0.995422325972429</v>
+        <v>0.9999495907206392</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -6234,32 +6234,32 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>RUG662.fasta</t>
+          <t>RUG745.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2.488483313231956e-09</v>
+        <v>1.435502367845212e-13</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9972048039431574</v>
+        <v>0.759419906831677</v>
       </c>
       <c r="D142" t="n">
-        <v>0.002794618391468372</v>
+        <v>0.2404681715560628</v>
       </c>
       <c r="E142" t="n">
-        <v>2.220086778687316e-14</v>
+        <v>1.435502367845211e-13</v>
       </c>
       <c r="F142" t="n">
-        <v>2.220086778687316e-14</v>
+        <v>1.435502367845211e-13</v>
       </c>
       <c r="G142" t="n">
-        <v>5.751768243908434e-07</v>
+        <v>0.0001119099407098094</v>
       </c>
       <c r="H142" t="n">
-        <v>2.220086778687316e-14</v>
+        <v>1.167111952882461e-08</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9972048039431574</v>
+        <v>0.759419906831677</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -6268,39 +6268,39 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RUG665.fasta</t>
+          <t>RUG750.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2.220484606381337e-14</v>
+        <v>5.731771409507516e-08</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9999948021074849</v>
+        <v>0.7959364796569355</v>
       </c>
       <c r="D143" t="n">
-        <v>5.1977998010869e-06</v>
+        <v>0.2040220533745204</v>
       </c>
       <c r="E143" t="n">
-        <v>2.220484606381337e-14</v>
+        <v>5.678632804390505e-14</v>
       </c>
       <c r="F143" t="n">
-        <v>9.2583586140305e-11</v>
+        <v>2.740249449342634e-05</v>
       </c>
       <c r="G143" t="n">
-        <v>6.387880704990358e-14</v>
+        <v>1.384856811688378e-05</v>
       </c>
       <c r="H143" t="n">
-        <v>2.220484606381345e-14</v>
+        <v>1.58588163052757e-07</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9999948021074849</v>
+        <v>0.7959364796569355</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -6316,32 +6316,32 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>RUG669.fasta</t>
+          <t>RUG757.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.888128904748302e-08</v>
+        <v>7.146102293176503e-13</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9996997085804593</v>
+        <v>0.9879744579669183</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0003002642375318667</v>
+        <v>0.01202537480930712</v>
       </c>
       <c r="E144" t="n">
-        <v>2.220353605125072e-14</v>
+        <v>2.22208657238231e-14</v>
       </c>
       <c r="F144" t="n">
-        <v>7.702872667035602e-13</v>
+        <v>1.193293203182604e-12</v>
       </c>
       <c r="G144" t="n">
-        <v>8.299394478200062e-09</v>
+        <v>1.672214764868304e-07</v>
       </c>
       <c r="H144" t="n">
-        <v>5.328086467578855e-13</v>
+        <v>3.680796887331945e-13</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9996997085804593</v>
+        <v>0.9879744579669183</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -6357,32 +6357,32 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>RUG670.fasta</t>
+          <t>RUG764.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5.656033201789918e-14</v>
+        <v>3.49690095266992e-12</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9999996239721738</v>
+        <v>0.9986582199684099</v>
       </c>
       <c r="D145" t="n">
-        <v>3.598259876786987e-07</v>
+        <v>0.0007396385157239702</v>
       </c>
       <c r="E145" t="n">
-        <v>2.220445932207509e-14</v>
+        <v>5.039240075659052e-14</v>
       </c>
       <c r="F145" t="n">
-        <v>1.590897641723854e-13</v>
+        <v>2.026303885883815e-09</v>
       </c>
       <c r="G145" t="n">
-        <v>1.568899372037977e-08</v>
+        <v>0.0006021394791833404</v>
       </c>
       <c r="H145" t="n">
-        <v>5.126073598346205e-10</v>
+        <v>6.83164190038066e-12</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9999996239721738</v>
+        <v>0.9986582199684099</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -6398,32 +6398,32 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>RUG671.fasta</t>
+          <t>RUG770.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>8.146266349160485e-12</v>
+        <v>2.220346869055744e-14</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9996731105943703</v>
+        <v>0.9996052084832499</v>
       </c>
       <c r="D146" t="n">
-        <v>0.000326889396865426</v>
+        <v>0.0003931965092117522</v>
       </c>
       <c r="E146" t="n">
-        <v>2.22035323293356e-14</v>
+        <v>2.220346869055744e-14</v>
       </c>
       <c r="F146" t="n">
-        <v>3.224795509193375e-13</v>
+        <v>2.220346869055744e-14</v>
       </c>
       <c r="G146" t="n">
-        <v>2.512598669114524e-13</v>
+        <v>1.59484320016723e-06</v>
       </c>
       <c r="H146" t="n">
-        <v>2.22035323293356e-14</v>
+        <v>1.642716047044535e-10</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9996731105943703</v>
+        <v>0.9996052084832499</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -6439,32 +6439,32 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>RUG672.fasta</t>
+          <t>RUG772.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2.220445252123649e-14</v>
+        <v>2.219938929159489e-14</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9999954817470393</v>
+        <v>0.9738263636156218</v>
       </c>
       <c r="D147" t="n">
-        <v>3.737716171142386e-06</v>
+        <v>0.02617363029881119</v>
       </c>
       <c r="E147" t="n">
-        <v>2.220445252123649e-14</v>
+        <v>2.219938929159489e-14</v>
       </c>
       <c r="F147" t="n">
-        <v>2.220445252123649e-14</v>
+        <v>2.219938929159489e-14</v>
       </c>
       <c r="G147" t="n">
-        <v>5.103934763568274e-07</v>
+        <v>9.432138004745499e-10</v>
       </c>
       <c r="H147" t="n">
-        <v>2.701432465354008e-07</v>
+        <v>5.142286585035519e-09</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9999954817470393</v>
+        <v>0.9738263636156218</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -6480,73 +6480,73 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RUG674.fasta</t>
+          <t>RUG774.fasta</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3.516837939455457e-14</v>
+        <v>2.220123293785222e-14</v>
       </c>
       <c r="C148" t="n">
-        <v>0.983410262471398</v>
+        <v>0.1948288494195673</v>
       </c>
       <c r="D148" t="n">
-        <v>0.01658973752838559</v>
+        <v>0.8051711505802952</v>
       </c>
       <c r="E148" t="n">
-        <v>3.516837939455464e-14</v>
+        <v>2.220123293785222e-14</v>
       </c>
       <c r="F148" t="n">
-        <v>3.516837939455468e-14</v>
+        <v>2.220123293785222e-14</v>
       </c>
       <c r="G148" t="n">
-        <v>3.516837939456206e-14</v>
+        <v>4.863070078517389e-14</v>
       </c>
       <c r="H148" t="n">
-        <v>7.565820022092693e-14</v>
+        <v>2.220123293785222e-14</v>
       </c>
       <c r="I148" t="n">
-        <v>0.983410262471398</v>
+        <v>0.8051711505802952</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia_A</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia_A</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>RUG680.fasta</t>
+          <t>RUG792.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.220446137137258e-14</v>
+        <v>2.220236116447117e-14</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9999999479364213</v>
+        <v>0.9991338121980784</v>
       </c>
       <c r="D149" t="n">
-        <v>5.206345162598933e-08</v>
+        <v>0.0008661863465676004</v>
       </c>
       <c r="E149" t="n">
-        <v>2.220446137137258e-14</v>
+        <v>2.220236116447117e-14</v>
       </c>
       <c r="F149" t="n">
-        <v>3.815700763123776e-14</v>
+        <v>2.220236116447117e-14</v>
       </c>
       <c r="G149" t="n">
-        <v>2.220446137137258e-14</v>
+        <v>1.455264984574265e-09</v>
       </c>
       <c r="H149" t="n">
-        <v>2.220446137137258e-14</v>
+        <v>2.220236116447117e-14</v>
       </c>
       <c r="I149" t="n">
-        <v>0.9999999479364213</v>
+        <v>0.9991338121980784</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -6562,32 +6562,32 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>RUG681.fasta</t>
+          <t>RUG797.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>7.824067626972549e-14</v>
+        <v>2.22044574605593e-14</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9970503431748342</v>
+        <v>0.9999987092894331</v>
       </c>
       <c r="D150" t="n">
-        <v>0.002949582707764816</v>
+        <v>1.290710455847474e-06</v>
       </c>
       <c r="E150" t="n">
-        <v>7.824067626972651e-14</v>
+        <v>2.22044574605593e-14</v>
       </c>
       <c r="F150" t="n">
-        <v>7.824067626972639e-14</v>
+        <v>2.22044574605593e-14</v>
       </c>
       <c r="G150" t="n">
-        <v>7.340176708305316e-08</v>
+        <v>2.22044574605593e-14</v>
       </c>
       <c r="H150" t="n">
-        <v>7.153990596125608e-10</v>
+        <v>2.22044574605593e-14</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9970503431748342</v>
+        <v>0.9999987092894331</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -6603,32 +6603,32 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>RUG686.fasta</t>
+          <t>RUG798.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.220445680639024e-14</v>
+        <v>2.22153881014395e-14</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9999985932074255</v>
+        <v>0.9999456994502461</v>
       </c>
       <c r="D151" t="n">
-        <v>1.406792438979429e-06</v>
+        <v>5.391599639273364e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>2.220445680639024e-14</v>
+        <v>2.22153881014395e-14</v>
       </c>
       <c r="F151" t="n">
-        <v>4.695898114750331e-14</v>
+        <v>3.845531897000221e-07</v>
       </c>
       <c r="G151" t="n">
-        <v>2.220445680639024e-14</v>
+        <v>2.22153881014395e-14</v>
       </c>
       <c r="H151" t="n">
-        <v>2.220445680639024e-14</v>
+        <v>1.048555665022695e-13</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9999985932074255</v>
+        <v>0.9999456994502461</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -6644,32 +6644,32 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>RUG687.fasta</t>
+          <t>RUG803.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2.483309961753343e-14</v>
+        <v>8.559042676472165e-14</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9950677581084847</v>
+        <v>0.9710828155758953</v>
       </c>
       <c r="D152" t="n">
-        <v>0.00492377238633978</v>
+        <v>0.02885947001736673</v>
       </c>
       <c r="E152" t="n">
-        <v>2.483309961753345e-14</v>
+        <v>8.559042676472155e-14</v>
       </c>
       <c r="F152" t="n">
-        <v>2.483309961753343e-14</v>
+        <v>8.55904267647216e-14</v>
       </c>
       <c r="G152" t="n">
-        <v>8.469496124240462e-06</v>
+        <v>5.346913409056725e-05</v>
       </c>
       <c r="H152" t="n">
-        <v>8.976698402103783e-12</v>
+        <v>4.24527239066036e-06</v>
       </c>
       <c r="I152" t="n">
-        <v>0.9950677581084847</v>
+        <v>0.9710828155758953</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -6685,32 +6685,32 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RUG694.fasta</t>
+          <t>RUG809.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2.220916257322534e-14</v>
+        <v>2.219907839837869e-14</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9973371804829091</v>
+        <v>0.9972343671013912</v>
       </c>
       <c r="D153" t="n">
-        <v>0.00264880850308476</v>
+        <v>0.002765343379158285</v>
       </c>
       <c r="E153" t="n">
-        <v>2.220916257322534e-14</v>
+        <v>2.219907839837869e-14</v>
       </c>
       <c r="F153" t="n">
-        <v>2.220916257322534e-14</v>
+        <v>2.895192826784485e-07</v>
       </c>
       <c r="G153" t="n">
-        <v>1.401101391548004e-05</v>
+        <v>1.009748317192175e-13</v>
       </c>
       <c r="H153" t="n">
-        <v>2.41453026457456e-14</v>
+        <v>2.219907839837869e-14</v>
       </c>
       <c r="I153" t="n">
-        <v>0.9973371804829091</v>
+        <v>0.9972343671013912</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -6726,32 +6726,32 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>RUG700.fasta</t>
+          <t>RUG811.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2.672217306047223e-14</v>
+        <v>1.548223755195089e-11</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9997470768590666</v>
+        <v>0.9891628608859129</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0002388686922765235</v>
+        <v>0.01055906718735907</v>
       </c>
       <c r="E154" t="n">
-        <v>2.220414053295125e-14</v>
+        <v>2.219926216943318e-14</v>
       </c>
       <c r="F154" t="n">
-        <v>2.220414053295125e-14</v>
+        <v>2.219926216943318e-14</v>
       </c>
       <c r="G154" t="n">
-        <v>1.405440623171401e-05</v>
+        <v>0.0002780719097539734</v>
       </c>
       <c r="H154" t="n">
-        <v>4.235387505479003e-11</v>
+        <v>1.447427185485339e-12</v>
       </c>
       <c r="I154" t="n">
-        <v>0.9997470768590666</v>
+        <v>0.9891628608859129</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -6767,32 +6767,32 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>RUG704.fasta</t>
+          <t>RUG814.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6.214037603313493e-14</v>
+        <v>8.436131252271732e-10</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8349438045416682</v>
+        <v>0.9643203094638177</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1650561954580209</v>
+        <v>0.03567943601658199</v>
       </c>
       <c r="E155" t="n">
-        <v>6.214037603313361e-14</v>
+        <v>2.219940157976342e-14</v>
       </c>
       <c r="F155" t="n">
-        <v>6.214037603313366e-14</v>
+        <v>2.219940157976342e-14</v>
       </c>
       <c r="G155" t="n">
-        <v>6.21403760331335e-14</v>
+        <v>2.536725194942252e-07</v>
       </c>
       <c r="H155" t="n">
-        <v>6.214037603313347e-14</v>
+        <v>3.423408032249827e-12</v>
       </c>
       <c r="I155" t="n">
-        <v>0.8349438045416682</v>
+        <v>0.9643203094638177</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -6808,32 +6808,32 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>RUG708.fasta</t>
+          <t>RUG816.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2.220216776588344e-14</v>
+        <v>1.371654480528906e-13</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9990456712494669</v>
+        <v>0.9741337744457687</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0009543191197165128</v>
+        <v>0.02581988438272741</v>
       </c>
       <c r="E156" t="n">
-        <v>2.220216776588344e-14</v>
+        <v>1.371654480528905e-13</v>
       </c>
       <c r="F156" t="n">
-        <v>2.220216776588344e-14</v>
+        <v>2.460124005890661e-13</v>
       </c>
       <c r="G156" t="n">
-        <v>9.63072273879018e-09</v>
+        <v>4.633849306751869e-05</v>
       </c>
       <c r="H156" t="n">
-        <v>2.741111426552635e-14</v>
+        <v>2.677916125793392e-09</v>
       </c>
       <c r="I156" t="n">
-        <v>0.9990456712494669</v>
+        <v>0.9741337744457687</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -6849,32 +6849,32 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>RUG709.fasta</t>
+          <t>RUG824.fasta</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1.045499483877297e-08</v>
+        <v>1.046880195066274e-13</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9980056330284152</v>
+        <v>0.9953499336508842</v>
       </c>
       <c r="D157" t="n">
-        <v>0.001994288246506537</v>
+        <v>0.004647479662372389</v>
       </c>
       <c r="E157" t="n">
-        <v>2.219998772400281e-14</v>
+        <v>1.046880195066286e-13</v>
       </c>
       <c r="F157" t="n">
-        <v>6.7267517069982e-13</v>
+        <v>1.046880195066285e-13</v>
       </c>
       <c r="G157" t="n">
-        <v>6.826936654013159e-08</v>
+        <v>2.585698745196564e-06</v>
       </c>
       <c r="H157" t="n">
-        <v>2.219998772400281e-14</v>
+        <v>9.876840747719967e-10</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9980056330284152</v>
+        <v>0.9953499336508842</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -6890,32 +6890,32 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RUG710.fasta</t>
+          <t>RUG825.fasta</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2.220437257523279e-14</v>
+        <v>1.764747577129388e-12</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9997776718898967</v>
+        <v>0.9999991050133687</v>
       </c>
       <c r="D158" t="n">
-        <v>7.732414386266312e-05</v>
+        <v>8.757141693772124e-07</v>
       </c>
       <c r="E158" t="n">
-        <v>2.220437257523279e-14</v>
+        <v>2.220445769617009e-14</v>
       </c>
       <c r="F158" t="n">
-        <v>2.220437257523279e-14</v>
+        <v>3.128429261111502e-13</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0001450038393670025</v>
+        <v>1.86809829021739e-08</v>
       </c>
       <c r="H158" t="n">
-        <v>1.268068551612193e-10</v>
+        <v>5.893790629761701e-10</v>
       </c>
       <c r="I158" t="n">
-        <v>0.9997776718898967</v>
+        <v>0.9999991050133687</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -6931,32 +6931,32 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>RUG724.fasta</t>
+          <t>RUG835.fasta</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4.572403666939622e-11</v>
+        <v>2.220464477233471e-14</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9999845336155095</v>
+        <v>0.9999957536157199</v>
       </c>
       <c r="D159" t="n">
-        <v>1.545601885107238e-05</v>
+        <v>4.246314761355155e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>2.220446002216136e-14</v>
+        <v>2.220464477233471e-14</v>
       </c>
       <c r="F159" t="n">
-        <v>1.028750439991271e-08</v>
+        <v>6.782268785907879e-11</v>
       </c>
       <c r="G159" t="n">
-        <v>3.236658395053429e-11</v>
+        <v>1.629433164279343e-12</v>
       </c>
       <c r="H159" t="n">
-        <v>2.220446002216136e-14</v>
+        <v>2.220464477233481e-14</v>
       </c>
       <c r="I159" t="n">
-        <v>0.9999845336155095</v>
+        <v>0.9999957536157199</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -6972,32 +6972,32 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RUG728.fasta</t>
+          <t>RUG841.fasta</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2.220473119901374e-14</v>
+        <v>2.219944834666112e-14</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9999955171724573</v>
+        <v>0.966503497412604</v>
       </c>
       <c r="D160" t="n">
-        <v>3.734049554201533e-06</v>
+        <v>0.03349648918282459</v>
       </c>
       <c r="E160" t="n">
-        <v>2.220473119901374e-14</v>
+        <v>2.219944834666112e-14</v>
       </c>
       <c r="F160" t="n">
-        <v>2.220473119901374e-14</v>
+        <v>2.219944834666112e-14</v>
       </c>
       <c r="G160" t="n">
-        <v>7.487778341799873e-07</v>
+        <v>1.340444617160942e-08</v>
       </c>
       <c r="H160" t="n">
-        <v>8.782954460218946e-14</v>
+        <v>5.854024141375306e-14</v>
       </c>
       <c r="I160" t="n">
-        <v>0.9999955171724573</v>
+        <v>0.966503497412604</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -7013,32 +7013,32 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>RUG731.fasta</t>
+          <t>RUG842.fasta</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2.220444901041827e-14</v>
+        <v>2.221093503425119e-14</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9999952153373678</v>
+        <v>0.9998049984124284</v>
       </c>
       <c r="D161" t="n">
-        <v>4.784662475327162e-06</v>
+        <v>0.0001950013848552679</v>
       </c>
       <c r="E161" t="n">
-        <v>2.220444901041827e-14</v>
+        <v>2.221093503425119e-14</v>
       </c>
       <c r="F161" t="n">
-        <v>6.790203845028982e-14</v>
+        <v>2.221093503425119e-14</v>
       </c>
       <c r="G161" t="n">
-        <v>2.220444901041827e-14</v>
+        <v>2.026274980705968e-10</v>
       </c>
       <c r="H161" t="n">
-        <v>2.220444901041827e-14</v>
+        <v>2.221093503425119e-14</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9999952153373678</v>
+        <v>0.9998049984124284</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -7054,32 +7054,32 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>RUG735.fasta</t>
+          <t>RUG847.fasta</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2.220429539520072e-14</v>
+        <v>2.19041108052678e-07</v>
       </c>
       <c r="C162" t="n">
-        <v>0.99994674227143</v>
+        <v>0.9980754311763036</v>
       </c>
       <c r="D162" t="n">
-        <v>9.185680667728454e-07</v>
+        <v>0.0019243447739321</v>
       </c>
       <c r="E162" t="n">
-        <v>2.220429539520072e-14</v>
+        <v>2.219910231566018e-14</v>
       </c>
       <c r="F162" t="n">
-        <v>1.840219184799098e-11</v>
+        <v>3.599857358417953e-09</v>
       </c>
       <c r="G162" t="n">
-        <v>5.233914194676084e-05</v>
+        <v>1.408754563345093e-09</v>
       </c>
       <c r="H162" t="n">
-        <v>1.098348411558472e-13</v>
+        <v>2.219910231566018e-14</v>
       </c>
       <c r="I162" t="n">
-        <v>0.99994674227143</v>
+        <v>0.9980754311763036</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -7095,32 +7095,32 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RUG745.fasta</t>
+          <t>hRUG851.fasta</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1.566003212944819e-13</v>
+        <v>2.220369928022928e-14</v>
       </c>
       <c r="C163" t="n">
-        <v>0.662449962816957</v>
+        <v>0.9995886892595048</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3369962236647389</v>
+        <v>0.0001359153992068782</v>
       </c>
       <c r="E163" t="n">
-        <v>1.566003212944819e-13</v>
+        <v>2.220369928022928e-14</v>
       </c>
       <c r="F163" t="n">
-        <v>1.566003212944819e-13</v>
+        <v>2.220369928022928e-14</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0005537985465856622</v>
+        <v>0.0002753953304339159</v>
       </c>
       <c r="H163" t="n">
-        <v>1.497124882251181e-08</v>
+        <v>1.078797424838196e-11</v>
       </c>
       <c r="I163" t="n">
-        <v>0.662449962816957</v>
+        <v>0.9995886892595048</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -7129,39 +7129,39 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>c__Clostridia(reject)</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>RUG747.fasta</t>
+          <t>hRUG859.fasta</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4.972373463238971e-12</v>
+        <v>5.014543505000808e-13</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9974165555232087</v>
+        <v>0.9997990170971722</v>
       </c>
       <c r="D164" t="n">
-        <v>0.002580337835698455</v>
+        <v>0.0001704841530003143</v>
       </c>
       <c r="E164" t="n">
-        <v>2.961686184161714e-14</v>
+        <v>2.220588719682845e-14</v>
       </c>
       <c r="F164" t="n">
-        <v>9.529493689687386e-11</v>
+        <v>7.153964142699867e-06</v>
       </c>
       <c r="G164" t="n">
-        <v>3.106540766309546e-06</v>
+        <v>2.334478509025199e-05</v>
       </c>
       <c r="H164" t="n">
-        <v>2.961686184162396e-14</v>
+        <v>7.087629167069276e-14</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9974165555232087</v>
+        <v>0.9997990170971722</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -7177,32 +7177,32 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>RUG750.fasta</t>
+          <t>hRUG861.fasta</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1.815641317104474e-08</v>
+        <v>2.220446274606863e-14</v>
       </c>
       <c r="C165" t="n">
-        <v>0.8265029436301077</v>
+        <v>0.999998875526169</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1734326363082675</v>
+        <v>1.124473720057899e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>1.103714644923231e-13</v>
+        <v>2.220446274606863e-14</v>
       </c>
       <c r="F165" t="n">
-        <v>2.27775862628769e-05</v>
+        <v>2.220446274606863e-14</v>
       </c>
       <c r="G165" t="n">
-        <v>4.120280429605898e-05</v>
+        <v>2.220446274606863e-14</v>
       </c>
       <c r="H165" t="n">
-        <v>4.215145425282278e-07</v>
+        <v>2.220446274606863e-14</v>
       </c>
       <c r="I165" t="n">
-        <v>0.8265029436301077</v>
+        <v>0.999998875526169</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -7218,32 +7218,32 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>RUG757.fasta</t>
+          <t>hRUG862.fasta</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4.114403330806236e-13</v>
+        <v>0.0006790863547174133</v>
       </c>
       <c r="C166" t="n">
-        <v>0.99448537217761</v>
+        <v>0.9959206263155965</v>
       </c>
       <c r="D166" t="n">
-        <v>0.005514359470445425</v>
+        <v>0.0006829518070013533</v>
       </c>
       <c r="E166" t="n">
-        <v>2.230947856257551e-14</v>
+        <v>0.0006790863545978887</v>
       </c>
       <c r="F166" t="n">
-        <v>2.864472965195415e-12</v>
+        <v>0.0006790867359349148</v>
       </c>
       <c r="G166" t="n">
-        <v>2.683482227144259e-07</v>
+        <v>0.0006800757033612753</v>
       </c>
       <c r="H166" t="n">
-        <v>4.23694810827521e-13</v>
+        <v>0.0006790867287905023</v>
       </c>
       <c r="I166" t="n">
-        <v>0.99448537217761</v>
+        <v>0.9959206263155965</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -7259,32 +7259,32 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>RUG760.fasta</t>
+          <t>hRUG871.fasta</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2.362242401137259e-14</v>
+        <v>5.998221144152961e-08</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9621375462833364</v>
+        <v>0.9997313155530058</v>
       </c>
       <c r="D167" t="n">
-        <v>0.03786245371654542</v>
+        <v>0.0002578472067752938</v>
       </c>
       <c r="E167" t="n">
-        <v>2.362242401137259e-14</v>
+        <v>2.220423663812432e-14</v>
       </c>
       <c r="F167" t="n">
-        <v>2.362242401137259e-14</v>
+        <v>2.220423663812432e-14</v>
       </c>
       <c r="G167" t="n">
-        <v>2.362242401137571e-14</v>
+        <v>1.077725740214005e-05</v>
       </c>
       <c r="H167" t="n">
-        <v>2.36224240113726e-14</v>
+        <v>5.609579452652017e-13</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9621375462833364</v>
+        <v>0.9997313155530058</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -7300,32 +7300,32 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>RUG764.fasta</t>
+          <t>hRUG875.fasta</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>8.228639271173366e-12</v>
+        <v>2.220660096456066e-14</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9979518685878879</v>
+        <v>0.999917552228609</v>
       </c>
       <c r="D168" t="n">
-        <v>0.001787242273551308</v>
+        <v>8.229584692484048e-05</v>
       </c>
       <c r="E168" t="n">
-        <v>6.388739466205157e-14</v>
+        <v>2.220660096456066e-14</v>
       </c>
       <c r="F168" t="n">
-        <v>6.602999103680351e-09</v>
+        <v>2.220660096456066e-14</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0002608825207361373</v>
+        <v>1.51437591513468e-07</v>
       </c>
       <c r="H168" t="n">
-        <v>6.533012138239809e-12</v>
+        <v>4.868080885765706e-10</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9979518685878879</v>
+        <v>0.999917552228609</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -7341,32 +7341,32 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>RUG769.fasta</t>
+          <t>hRUG880.fasta</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2.220164414021319e-14</v>
+        <v>4.039485837048097e-13</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7685430374197876</v>
+        <v>0.9707447979830178</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2314569247205065</v>
+        <v>2.295062820626812e-05</v>
       </c>
       <c r="E169" t="n">
-        <v>2.220164414021319e-14</v>
+        <v>2.219787638839589e-14</v>
       </c>
       <c r="F169" t="n">
-        <v>2.220164414021319e-14</v>
+        <v>2.815527233412407e-13</v>
       </c>
       <c r="G169" t="n">
-        <v>3.102270449079681e-08</v>
+        <v>0.0292322510689891</v>
       </c>
       <c r="H169" t="n">
-        <v>6.836934650144918e-09</v>
+        <v>3.190788290303063e-10</v>
       </c>
       <c r="I169" t="n">
-        <v>0.7685430374197876</v>
+        <v>0.9707447979830178</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -7375,39 +7375,39 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>c__Clostridia(reject)</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RUG770.fasta</t>
+          <t>hRUG884.fasta</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2.220397271191584e-14</v>
+        <v>2.220433901323037e-14</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9997537573120896</v>
+        <v>0.999739222915544</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0002450472398040566</v>
+        <v>0.0002605152604379116</v>
       </c>
       <c r="E170" t="n">
-        <v>2.220397271191584e-14</v>
+        <v>2.220433901323037e-14</v>
       </c>
       <c r="F170" t="n">
-        <v>2.220397271191584e-14</v>
+        <v>2.220433901323037e-14</v>
       </c>
       <c r="G170" t="n">
-        <v>1.195256184779248e-06</v>
+        <v>2.190811538090292e-07</v>
       </c>
       <c r="H170" t="n">
-        <v>1.918550849380195e-10</v>
+        <v>4.274279779042821e-08</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9997537573120896</v>
+        <v>0.999739222915544</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -7423,32 +7423,32 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>RUG772.fasta</t>
+          <t>hRUG892.fasta</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2.219946966379666e-14</v>
+        <v>1.623727707764391e-12</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9648755981050944</v>
+        <v>0.9999781116194598</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0351243962633604</v>
+        <v>1.638640524638078e-05</v>
       </c>
       <c r="E171" t="n">
-        <v>2.219946966379666e-14</v>
+        <v>2.220443815033428e-14</v>
       </c>
       <c r="F171" t="n">
-        <v>2.219946966379666e-14</v>
+        <v>2.220443815033428e-14</v>
       </c>
       <c r="G171" t="n">
-        <v>1.353942931672144e-09</v>
+        <v>5.501973576190027e-06</v>
       </c>
       <c r="H171" t="n">
-        <v>4.277535720010138e-09</v>
+        <v>4.951258659958258e-14</v>
       </c>
       <c r="I171" t="n">
-        <v>0.9648755981050944</v>
+        <v>0.9999781116194598</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -7464,73 +7464,73 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>RUG774.fasta</t>
+          <t>hRUG896.fasta</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2.22003376334568e-14</v>
+        <v>2.220442627333281e-14</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1039719868416808</v>
+        <v>0.9999770050101003</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8960280131582081</v>
+        <v>9.495670209924264e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>2.22003376334568e-14</v>
+        <v>2.220442627333281e-14</v>
       </c>
       <c r="F172" t="n">
-        <v>2.22003376334568e-14</v>
+        <v>2.220442627333281e-14</v>
       </c>
       <c r="G172" t="n">
-        <v>2.22003376334568e-14</v>
+        <v>1.349926117824664e-05</v>
       </c>
       <c r="H172" t="n">
-        <v>2.22003376334568e-14</v>
+        <v>5.844501653313287e-11</v>
       </c>
       <c r="I172" t="n">
-        <v>0.8960280131582081</v>
+        <v>0.9999770050101003</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>RUG776.fasta</t>
+          <t>hRUG899.fasta</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>6.682290329367565e-14</v>
+        <v>2.220443402015351e-14</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9811740022257992</v>
+        <v>0.9999703295112906</v>
       </c>
       <c r="D173" t="n">
-        <v>0.01882599777374256</v>
+        <v>2.40425490300877e-05</v>
       </c>
       <c r="E173" t="n">
-        <v>6.682290329367572e-14</v>
+        <v>2.220443402015351e-14</v>
       </c>
       <c r="F173" t="n">
-        <v>6.682290329367588e-14</v>
+        <v>2.220443402015351e-14</v>
       </c>
       <c r="G173" t="n">
-        <v>6.682290329369687e-14</v>
+        <v>5.627736970895935e-06</v>
       </c>
       <c r="H173" t="n">
-        <v>1.908265220519427e-13</v>
+        <v>2.026418882112027e-10</v>
       </c>
       <c r="I173" t="n">
-        <v>0.9811740022257992</v>
+        <v>0.9999703295112906</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -7546,32 +7546,32 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>RUG792.fasta</t>
+          <t>hRUG901.fasta</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2.220353531707687e-14</v>
+        <v>2.220128795201863e-14</v>
       </c>
       <c r="C174" t="n">
-        <v>0.999593156271297</v>
+        <v>0.998482764247224</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0004068437170079216</v>
+        <v>0.001515541415390511</v>
       </c>
       <c r="E174" t="n">
-        <v>2.220353531707687e-14</v>
+        <v>2.220128795201863e-14</v>
       </c>
       <c r="F174" t="n">
-        <v>2.220353531707687e-14</v>
+        <v>2.220128795201863e-14</v>
       </c>
       <c r="G174" t="n">
-        <v>1.160628122562249e-11</v>
+        <v>1.694294361405157e-06</v>
       </c>
       <c r="H174" t="n">
-        <v>2.220353531707687e-14</v>
+        <v>4.295748018313205e-11</v>
       </c>
       <c r="I174" t="n">
-        <v>0.999593156271297</v>
+        <v>0.998482764247224</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -7587,32 +7587,32 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>RUG798.fasta</t>
+          <t>hRUG904.fasta</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2.221008360992949e-14</v>
+        <v>1.148986388180547e-07</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9999679787091839</v>
+        <v>0.9935112408418161</v>
       </c>
       <c r="D175" t="n">
-        <v>2.81055940357974e-05</v>
+        <v>0.006488595717213185</v>
       </c>
       <c r="E175" t="n">
-        <v>2.221008360992949e-14</v>
+        <v>2.21991221026706e-14</v>
       </c>
       <c r="F175" t="n">
-        <v>3.915696691548353e-06</v>
+        <v>2.195931270096881e-08</v>
       </c>
       <c r="G175" t="n">
-        <v>2.221008360992949e-14</v>
+        <v>2.658297474536703e-08</v>
       </c>
       <c r="H175" t="n">
-        <v>2.221008360992959e-14</v>
+        <v>2.21991221026706e-14</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9999679787091839</v>
+        <v>0.9935112408418161</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -7620,990 +7620,6 @@
         </is>
       </c>
       <c r="K175" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>RUG803.fasta</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>1.997941644476463e-13</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.9508814248253191</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.04889750706583516</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.997941644476466e-13</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1.997941644476464e-13</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.0002189066785048333</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2.161429741577928e-06</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0.9508814248253191</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>RUG811.fasta</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>6.796770643182824e-12</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.9940313199314504</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.005912957504945324</v>
-      </c>
-      <c r="E177" t="n">
-        <v>2.219918613171529e-14</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2.219918613171529e-14</v>
-      </c>
-      <c r="G177" t="n">
-        <v>5.572255592595446e-05</v>
-      </c>
-      <c r="H177" t="n">
-        <v>8.374387740427355e-13</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.9940313199314504</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>RUG814.fasta</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>4.758213873174808e-10</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.9769271875051031</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.02307220083577822</v>
-      </c>
-      <c r="E178" t="n">
-        <v>2.219925624028134e-14</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2.219925624028134e-14</v>
-      </c>
-      <c r="G178" t="n">
-        <v>6.111794231414502e-07</v>
-      </c>
-      <c r="H178" t="n">
-        <v>3.829604013660762e-12</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.9769271875051031</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>RUG816.fasta</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2.7379500107532e-13</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.9581457321095163</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.0418455913494026</v>
-      </c>
-      <c r="E179" t="n">
-        <v>2.7379500107532e-13</v>
-      </c>
-      <c r="F179" t="n">
-        <v>4.090369823741787e-13</v>
-      </c>
-      <c r="G179" t="n">
-        <v>8.675075850033998e-06</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1.464274431564505e-09</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.9581457321095163</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>RUG824.fasta</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>8.114656464577683e-14</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.9964408269749531</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.00355813247490967</v>
-      </c>
-      <c r="E180" t="n">
-        <v>8.114656464577734e-14</v>
-      </c>
-      <c r="F180" t="n">
-        <v>8.114656464577729e-14</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1.040193778630066e-06</v>
-      </c>
-      <c r="H180" t="n">
-        <v>3.561150457217827e-10</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.9964408269749531</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>RUG825.fasta</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>4.117685536776729e-13</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.9999992503263182</v>
-      </c>
-      <c r="D181" t="n">
-        <v>7.373945849564964e-07</v>
-      </c>
-      <c r="E181" t="n">
-        <v>2.220445814391524e-14</v>
-      </c>
-      <c r="F181" t="n">
-        <v>6.259796760113395e-13</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1.221071405803737e-08</v>
-      </c>
-      <c r="H181" t="n">
-        <v>6.732270595159497e-11</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.9999992503263182</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>RUG835.fasta</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>2.220464607118031e-14</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.9999954654766421</v>
-      </c>
-      <c r="D182" t="n">
-        <v>4.534380415929767e-06</v>
-      </c>
-      <c r="E182" t="n">
-        <v>2.22046460711803e-14</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1.427441736737662e-10</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1.312692563545975e-13</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2.220464607118033e-14</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.9999954654766421</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>RUG841.fasta</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>2.219963358329692e-14</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.9555600834304183</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.04443990376665162</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2.219963358329692e-14</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2.219963358329692e-14</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1.280282942164963e-08</v>
-      </c>
-      <c r="H183" t="n">
-        <v>3.400102079049231e-14</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.9555600834304183</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>RUG842.fasta</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>2.2209573512353e-14</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.9998324621231851</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.0001675378766631409</v>
-      </c>
-      <c r="E184" t="n">
-        <v>2.2209573512353e-14</v>
-      </c>
-      <c r="F184" t="n">
-        <v>2.2209573512353e-14</v>
-      </c>
-      <c r="G184" t="n">
-        <v>6.300654470509289e-14</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2.2209573512353e-14</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.9998324621231851</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>RUG847.fasta</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>6.983116541516347e-08</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.9988002393022211</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.001199685156760703</v>
-      </c>
-      <c r="E185" t="n">
-        <v>2.22012064079987e-14</v>
-      </c>
-      <c r="F185" t="n">
-        <v>4.845949134454361e-09</v>
-      </c>
-      <c r="G185" t="n">
-        <v>8.638591803342639e-10</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2.22012064079987e-14</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.9988002393022211</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>hRUG851.fasta</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>2.22044501320729e-14</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.9999229347376443</v>
-      </c>
-      <c r="D186" t="n">
-        <v>7.635032192333468e-05</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2.22044501320729e-14</v>
-      </c>
-      <c r="F186" t="n">
-        <v>2.22044501320729e-14</v>
-      </c>
-      <c r="G186" t="n">
-        <v>7.149402467304628e-07</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1.190344323912888e-13</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.9999229347376443</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>hRUG859.fasta</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>7.949757696830591e-12</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.9996672748036274</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.0002954895247013607</v>
-      </c>
-      <c r="E187" t="n">
-        <v>2.22074151857466e-14</v>
-      </c>
-      <c r="F187" t="n">
-        <v>2.409488927458546e-05</v>
-      </c>
-      <c r="G187" t="n">
-        <v>1.314077430206974e-05</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1.226461490629345e-13</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0.9996672748036274</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>hRUG861.fasta</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>2.220446013316214e-14</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.9999995077145784</v>
-      </c>
-      <c r="D188" t="n">
-        <v>4.922853106226498e-07</v>
-      </c>
-      <c r="E188" t="n">
-        <v>2.220446013316214e-14</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2.220446013316214e-14</v>
-      </c>
-      <c r="G188" t="n">
-        <v>2.220446013316214e-14</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2.220446013316214e-14</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.9999995077145784</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>hRUG862.fasta</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>0.0007408567460762942</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.9955486874528973</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.000743739207270421</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.00074085674601635</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.0007408571436302483</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.0007441441086898301</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.0007408585954196372</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.9955486874528973</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>hRUG869.fasta</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2.220430761021197e-14</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.9999223970184208</v>
-      </c>
-      <c r="D190" t="n">
-        <v>7.720862762457258e-05</v>
-      </c>
-      <c r="E190" t="n">
-        <v>2.220430761021197e-14</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2.220430761021197e-14</v>
-      </c>
-      <c r="G190" t="n">
-        <v>3.94320291102001e-07</v>
-      </c>
-      <c r="H190" t="n">
-        <v>3.35970089298157e-11</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.9999223970184208</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>hRUG871.fasta</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>3.166725039544318e-08</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.9997067664186257</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.0002899695873811113</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2.220405713691489e-14</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2.220405713691489e-14</v>
-      </c>
-      <c r="G191" t="n">
-        <v>3.232326316034332e-06</v>
-      </c>
-      <c r="H191" t="n">
-        <v>3.824606665284227e-13</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.9997067664186257</v>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>hRUG874.fasta</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>2.219993854809723e-14</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.9072908775635976</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.09263502138865692</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2.219993854809723e-14</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2.219993854809723e-14</v>
-      </c>
-      <c r="G192" t="n">
-        <v>7.41010066022107e-05</v>
-      </c>
-      <c r="H192" t="n">
-        <v>4.10768124089685e-11</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0.9072908775635976</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>hRUG877.fasta</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2.225154429364491e-14</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.9988024554275334</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.001195512032723353</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2.225154429364479e-14</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1.690335610169533e-10</v>
-      </c>
-      <c r="G193" t="n">
-        <v>2.032152316681212e-06</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2.183486065360075e-10</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0.9988024554275334</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>hRUG880.fasta</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>1.369434093831766e-12</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.978497771917807</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2.998592372741699e-05</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2.219836642289374e-14</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1.218598647938878e-12</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.02147224193579558</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2.200598609726832e-10</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0.978497771917807</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>hRUG884.fasta</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2.220425459102008e-14</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.9997846505977385</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.0002150823089976712</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2.220425459102008e-14</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2.220425459102008e-14</v>
-      </c>
-      <c r="G195" t="n">
-        <v>1.813135395880717e-07</v>
-      </c>
-      <c r="H195" t="n">
-        <v>8.577965772755123e-08</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0.9997846505977385</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>hRUG892.fasta</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>1.332494044925131e-11</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.9999620741235117</v>
-      </c>
-      <c r="D196" t="n">
-        <v>2.953705849310719e-05</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2.220444330763501e-14</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2.220444330763501e-14</v>
-      </c>
-      <c r="G196" t="n">
-        <v>8.388804576392674e-06</v>
-      </c>
-      <c r="H196" t="n">
-        <v>4.961200350598362e-14</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0.9999620741235117</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>hRUG899.fasta</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>2.220444643249645e-14</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.9999732091505604</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2.452060588273553e-05</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2.220444643249645e-14</v>
-      </c>
-      <c r="F197" t="n">
-        <v>2.220444643249645e-14</v>
-      </c>
-      <c r="G197" t="n">
-        <v>2.270070049408262e-06</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1.734406174828244e-10</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0.9999732091505604</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="inlineStr">
-        <is>
-          <t>hRUG901.fasta</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>2.220180897847121e-14</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.9977977245833036</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.002200313420942696</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2.220180897847121e-14</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2.220180897847121e-14</v>
-      </c>
-      <c r="G198" t="n">
-        <v>1.961774294704643e-06</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2.213923320412945e-10</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0.9977977245833036</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>hRUG904.fasta</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>2.16367691938557e-08</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.9942217926148299</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.005778071460892272</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2.21991210783885e-14</v>
-      </c>
-      <c r="F199" t="n">
-        <v>5.75114397997257e-08</v>
-      </c>
-      <c r="G199" t="n">
-        <v>5.67760242964129e-08</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2.21991210783885e-14</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0.9942217926148299</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>c__Clostridia</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
         <is>
           <t>c__Clostridia</t>
         </is>
